--- a/plant_diseases.xlsx
+++ b/plant_diseases.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="beans" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cassava" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mango" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cocoa" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="maize" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okra" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="oil palm" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="onion" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="beans" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mango" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="cocoa" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="okra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="oil palm" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="onion" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="almond" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="banana" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="carrot" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="cassava" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="cucumber" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ginger" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="orange" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="pawpaw" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="plantain" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="rice" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1121,13 +1129,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,7 +1306,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bud necrosis</t>
+          <t>Bad Image</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1306,21 +1314,9 @@
           <t>Xanthomonas manihotis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Patches of dark brown or gray fungal growth on stems; necrotic areas covering buds on the stem</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Disease most commonly found on cassava grown in humid regions (e.g humid forest zones) and is less common in drier savanna areas; fungal spores are carried by wind to new plants and farms</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
@@ -1330,15 +1326,375 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Cassava Mites</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CBLS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CBSD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CGM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CMD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Do Not Replant</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Diseased plant that should not be used to replant next season.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Healthy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Late Blight</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mealybugs</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nutrient Deficiency</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Potato Virus</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Replant</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Clean mother plant that can be used for replanting next year</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Wilting</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Bud necrosis</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Xanthomonas manihotis</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Patches of dark brown or gray fungal growth on stems; necrotic areas covering buds on the stem</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Disease most commonly found on cassava grown in humid regions (e.g humid forest zones) and is less common in drier savanna areas; fungal spores are carried by wind to new plants and farms</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Cassava Brown Streak Disease</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Xanthomonas manihotis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Leaves: 
 - chlorotic or necrotic vein banding in mature leaves which may merge later to form large yellow patches
@@ -1348,490 +1704,105 @@
 - necrosis of tubers
 - roots develop knots
 - internal tissues of roots and tubers stained brown and may rot due to secondary fungus infection
-1. yellowing along veins on lower/older leaves ~ 3 months after planting
-2. dark brown spots on upper green portion of stem ~ 6 months after planting
-3. Severe cases- leaf drying, shoot die-back
-4. In Tuber - Brown and hard rot when you cut into it. Causes malformation and root
+1. yellowing along veins on lower/older leaves ~ 3 months after planting
+2. dark brown spots on upper green portion of stem ~ 6 months after planting
+3. Severe cases- leaf drying, shoot die-back
+4. In Tuber - Brown and hard rot when you cut into it. Causes malformation and root
 constriction ~ 10 months after planting</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Virus</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Histroy and origin: Disease is prevalent in East Africa (Tanzania, Uganda and Kenya). It was first reported in 1930's in Tanzania and become endemic in later years. It is currently travelling from East Africa westwards and has been reported in the DRC. There is considerable concern that it will appear in the major West African growing regions, notably Nigeria. The virus is transmitted through whiteflies and stem cuttings. The origin of CBSD is suspected to have arisen from the viruses that are already present on the indigenous African flora. Virus structure and properties: The microscopic studies revealed that the virus is 650 nm long and earlier it was believe to be carlavirus. But further studies associate the virus to Ipomovirus. Cassva Brown Streak Disease is caused by two distinct species of single-stranded RNA (ssRNA) viruses, Cassava brown streak virus (CBSV) and Ugandan cassava brown streak virus (UCBSV), belonging to the genus Ipomovirus of the family Potyviridae. Economic loss: Cassava is an important stable crop in Africa and the continent produces an estimated 54% of the world's cassava production. As such the threat from CBSD seems inevitable due to its presence in many eastern African countries and its rate of transmission westwards to the major growing regions in Nigeria (which produced 30.8% of the world's supply). Though the economic loss from brown streak virus depends on region, cultivars and environment conditions, in general it is estimated up to 70% yield loss in susceptible variety is common with losses as high as 100% being observed in some regions. If the disease is unchecked it may cause 2 billion dollar in loss in Nigeria alone and lead to increase widespread poverty and malnutrition in West and Central Africa.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Disease diagnosis: The first and foremost important aspect is to identify the disease correctly. Cassava brown streak disease varies in symptoms which made it difficult to identify in the field. It makes further complicated if both cassava brown streak and cassava mosaic diseases occur together. There are few techniques like serological and molecular methods are used to identify the virus in laboratory but have their limitations. Planting materials: Use only healthy and disease free cuttings for planting. Resistant cultivars: Plant cassava varieties that are more tolerant of brown streak virus such as Garukunsubire and Seruruseke. Roguing and sanitation: Remove and destroy any plants which are symptomatic of the disease including alternative hosts. Early Harvesting of tubers: Harvest crop early to avoid severe losses due to necrosis of tubers. Follow proper plant quarantine practices to avoid spread of virus to new region. Control insect vector: Whiteflies can be controlled by encouraging beneficial insects in the field like spiders, ladybird beetles etc. Use yellow sticky traps to monitor infestation of whiteflies. Spraying insecticidal soaps under leaf surface to kill flies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cassava Mosaic Disease</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Discolored pale green, yellow or white mottled leaves which may be distorted with a reduced size; in highly susceptible cassava cultivars plant growth may be stunted, resulting in poor root yield and low quality stem cuttings. Note that infected plants can express a range of symptoms and the exact symptoms depend on the species of virus and the strain as well as the environmental conditions and and the sensitivity of the cassava host.
-1. Patches of discolouration (chlorosis) in the leaves that vary from yellow to green.
-2. The leaves display size variation and are often severely distorted.
-3. Leaf blades sometimes fold depending on severity shrivel.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Disease is spread by infected cuttings and by whiteflies. The leaves are yellow, mottled and distorted. If leaves are yellow all over but are a normal size or there brown leaves that that does not indicate disease. Wild cassava (kisamvu cha mpira in Kiswahili) also hosts the disease. The disease was first observed in the late 19th Century in what is now Tanzania. It was not until work in 1938 that the disease transmission was confirmed to occur via grafting as well as vectored by the White fly.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Varieties of cassava resistant to the virus are available in many countries, most traditional varieties of cassava grown in Africa are susceptible to the virus, seek advice from an agricultural extension on suitable varieties for your region (see below). Do not plant cuttings from plants with symptoms of disease; inspect plants regularly for symptoms of disease and remove and destroy any showing symptoms. Infected plants should be uprooted ('rouged'). Replace with disease resistant varieties such as 'Rwizihiza', 'Ndamirabana', 'Cyizere', 'Seruruseke', 'Mavoka', 'Garukunsubire' and 'Mbakungahaze'. There is no agrochemical agent or organic treatment for this disease. There are both control strategies for the whitefly vector.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cassava Bacterial Blight</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Small, angular, brown, water-soaked lesions between leaf veins on lower surfaces of leaves; leaf blades turning brown as lesion expands; lesions may have a yello halo; lesions coalesce to form large necrotic patches; defoliation occurs with leaf petioles remaining in horizontal position as leaves drop; dieback of shoots; brown gum may be present on stems, leaves and petioles</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Most important bacterial disease of cassava; spread by water splash and infected tools; disease more severe in wet conditions; particularly destructive in South America and Africa; most important method of spread is probably through exchange of infected plant cuttings</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Rotate cassava crop with non-host; plow crop debris into soil after harvest or remove and burn it; prune infected parts from plant; propagate cuttings only from healthy plants; intercrop cassava with corn (maize) and melon</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cassava Healthy</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Cassava Nutritional Deficiency</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>No Diagnosis</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cassava Mites</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CBLS</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CBSD</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CGM</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CMD</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CRM</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Do Not Replant</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Diseased plant that should not be used to replant next season.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Healthy</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Late Blight</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Potato Virus</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Replant</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Clean mother plant that can be used for replanting next year</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cassava root rot disease</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Leaves on affected plants turning brown and wilting and plant has a scorched appearance; leaves may remain attached to the plant or drop to the ground; plant death will occur; examination of roots reveals root dieback and swelling of tubers; tubers may have light brown, dark gray, blue or pink discoloration; rotting roots may be soft and produce a foul odor; infection by Botryodiplodia fungi may cause the appearance of white fungal structures at the base of the stem, particularly during the wet season</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fungi</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Root rot disease emergence is often favored by waterlogged, poorly-draining soils</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>African root and tuber scale</t>
+          <t>Cassava Mosaic Disease</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strictococcus vayssierrei</t>
+          <t>Xanthomonas manihotis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oval shaped scales on stems, roots and/or tubers; infections which occur at an early age kill plants and prevent the production of tubers; plant becomes shriveled and discolored at feeding sites</t>
+          <t>Discolored pale green, yellow or white mottled leaves which may be distorted with a reduced size; in highly susceptible cassava cultivars plant growth may be stunted, resulting in poor root yield and low quality stem cuttings. Note that infected plants can express a range of symptoms and the exact symptoms depend on the species of virus and the strain as well as the environmental conditions and and the sensitivity of the cassava host.
+1. Patches of discolouration (chlorosis) in the leaves that vary from yellow to green.
+2. The leaves display size variation and are often severely distorted.
+3. Leaf blades sometimes fold depending on severity shrivel.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Insect</t>
+          <t>Virus</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Insect is indigenous to Africa and is particularly prevalent in forest areas of Ghana and Congo</t>
+          <t>Disease is spread by infected cuttings and by whiteflies. The leaves are yellow, mottled and distorted. If leaves are yellow all over but are a normal size or there brown leaves that that does not indicate disease. Wild cassava (kisamvu cha mpira in Kiswahili) also hosts the disease. The disease was first observed in the late 19th Century in what is now Tanzania. It was not until work in 1938 that the disease transmission was confirmed to occur via grafting as well as vectored by the White fly.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Improve soil by adding organic matter to make soil more fertile; remove and destroy infested stems; do not plant cuttings with scale</t>
+          <t>Varieties of cassava resistant to the virus are available in many countries, most traditional varieties of cassava grown in Africa are susceptible to the virus, seek advice from an agricultural extension on suitable varieties for your region (see below). Do not plant cuttings from plants with symptoms of disease; inspect plants regularly for symptoms of disease and remove and destroy any showing symptoms. Infected plants should be uprooted ('rouged'). Replace with disease resistant varieties such as 'Rwizihiza', 'Ndamirabana', 'Cyizere', 'Seruruseke', 'Mavoka', 'Garukunsubire' and 'Mbakungahaze'. There is no agrochemical agent or organic treatment for this disease. There are both control strategies for the whitefly vector.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cassava scale</t>
+          <t>Cassava Bacterial Blight</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aonidomytilus albus</t>
+          <t>Xanthomonas manihotis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Stem surfaces covered with white waxy substance; leaves wilting and dropping from plant; severe infestations may result in stunted plants and poor tuber yields; cutting from infected plants do not sprout; insect is a flattened oval scale with an elongated white cover</t>
+          <t>Small, angular, brown, water-soaked lesions between leaf veins on lower surfaces of leaves; leaf blades turning brown as lesion expands; lesions may have a yello halo; lesions coalesce to form large necrotic patches; defoliation occurs with leaf petioles remaining in horizontal position as leaves drop; dieback of shoots; brown gum may be present on stems, leaves and petioles</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Insect</t>
+          <t>Bacterium</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Using pesticides to control scale insects reduces populations of beneficial insects such as natural enemies</t>
+          <t>Most important bacterial disease of cassava; spread by water splash and infected tools; disease more severe in wet conditions; particularly destructive in South America and Africa; most important method of spread is probably through exchange of infected plant cuttings</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Plant material that is completely free of scale insects; remove and destroy infested stems from existing plantations; apply organic matter to soil to improve fertility</t>
+          <t>Rotate cassava crop with non-host; plow crop debris into soil after harvest or remove and burn it; prune infected parts from plant; propagate cuttings only from healthy plants; intercrop cassava with corn (maize) and melon</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cassava whitefly</t>
+          <t>Cassava Healthy</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Zonocerus variegatus
-Zonocerus elegans</t>
+          <t>Macrophomina phaseolina</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1839,159 +1810,316 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hand pick any grasshoppers found on plants; locate any egg pods around cassava field and destroy to reduce grasshopper populations; biopesticides such as "Green Muscle" are available in South and West Africa which are very effective at reducing the grasshopper population; products containing neem have also given good control of variegated grasshoppers</t>
+          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Grasshoppers (Variegated grasshopper, Elegant grasshopper)</t>
+          <t>Cassava Nutritional Deficiency</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
+        <is>
+          <t>Macrophomina phaseolina</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>No Diagnosis</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Macrophomina phaseolina</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cassava root rot disease</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Macrophomina phaseolina</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Leaves on affected plants turning brown and wilting and plant has a scorched appearance; leaves may remain attached to the plant or drop to the ground; plant death will occur; examination of roots reveals root dieback and swelling of tubers; tubers may have light brown, dark gray, blue or pink discoloration; rotting roots may be soft and produce a foul odor; infection by Botryodiplodia fungi may cause the appearance of white fungal structures at the base of the stem, particularly during the wet season</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Root rot disease emergence is often favored by waterlogged, poorly-draining soils</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>African root and tuber scale</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strictococcus vayssierrei</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Oval shaped scales on stems, roots and/or tubers; infections which occur at an early age kill plants and prevent the production of tubers; plant becomes shriveled and discolored at feeding sites</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Insect is indigenous to Africa and is particularly prevalent in forest areas of Ghana and Congo</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Improve soil by adding organic matter to make soil more fertile; remove and destroy infested stems; do not plant cuttings with scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cassava scale</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Aonidomytilus albus</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Stem surfaces covered with white waxy substance; leaves wilting and dropping from plant; severe infestations may result in stunted plants and poor tuber yields; cutting from infected plants do not sprout; insect is a flattened oval scale with an elongated white cover</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Using pesticides to control scale insects reduces populations of beneficial insects such as natural enemies</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Plant material that is completely free of scale insects; remove and destroy infested stems from existing plantations; apply organic matter to soil to improve fertility</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cassava whitefly</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Zonocerus variegatus
 Zonocerus elegans</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hand pick any grasshoppers found on plants; locate any egg pods around cassava field and destroy to reduce grasshopper populations; biopesticides such as "Green Muscle" are available in South and West Africa which are very effective at reducing the grasshopper population; products containing neem have also given good control of variegated grasshoppers</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Grasshoppers (Variegated grasshopper, Elegant grasshopper)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Zonocerus variegatus
+Zonocerus elegans</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Defoliated plants; bark removed from stems; insects are large brightly colored grasshoppers</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Insect</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Grasshoppers have a wide host range and mainly attack seedlings; cooperation between neighboring farms can help with grasshopper control as the insect tends to lay its eggs outwith the plantation with nymphs migrating to the crop to feed</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Hand pick any grasshoppers found on plants; locate any egg pods around cassava field and destroy to reduce grasshopper populations; biopesticides such as "Green Muscle" are available in South and West Africa which are very effective at reducing the grasshopper population; products containing neem have also given good control of variegated grasshoppers</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Cassava Green Mite</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Mononychellus tanajoa
 Mononychellus progresivus</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Yellow stipping of leaves; chlorotic spots on leaves; chlorosis of entire leaves; if infestation is very high then leaves may be stunted and deformed; terminal leaves may die and drop from plant; pest responsible is a tiny green mite
-1. Chlorosis (yellowing of leaves).
-2. Leaves become shrivelled, mottled in serious cases
-3. Check for the presence of mites on the underside of leaves
+1. Chlorosis (yellowing of leaves).
+2. Leaves become shrivelled, mottled in serious cases
+3. Check for the presence of mites on the underside of leaves
 4. Yellow speckles evenly distributed on young leaves usually near the top ⅓ of the plant</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Arachnid</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Green spider mites are very common pests in most African growing regions and become problematic during the dry season; can cause significant tuber losses</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Plant tolerant cassava varieties where possible; plant at the beginning of the rainy season to encourage vigorous growth which allows plant to tolerate attack; intercropping with crops such as cowpea may reduce damage; introductions of the predatory mite Typhlodromalus aripo have been very successful at controlling the green spider mite in many regions of Africa</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Cassava Red Mite Damage</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Tetranychus</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Spraying plants with a strong jet of water can help reduce buildup of spider mite populations; if mites become problematic apply insecticidal soap to plants; certain chemical insecticides may actually increase mite populations by killing off natural enemies and promoting mite reproduction</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Two-spotted spider mite</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Tetranychus</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Leaves stippled with yellow; leaves may appear bronzed; webbing covering leaves; mites may be visible as tiny moving dots on the webs or underside of leaves, best viewed using a hand lens; usually not spotted until there are visible symptoms on the plant; leaves turn yellow and may drop from plant</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Arachnid</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Spider mites thrive in dusty conditions; water-stressed plants are more susceptible to attack</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Spraying plants with a strong jet of water can help reduce buildup of spider mite populations; if mites become problematic apply insecticidal soap to plants; certain chemical insecticides may actually increase mite populations by killing off natural enemies and promoting mite reproduction</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Root knot nematode</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Meloidogyne</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Galls on roots which can be up to 3.3 cm (1 in) in diameter but are usually smaller; reduction in plant vigor; yellowing plants which wilt in hot weather</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Nematode</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Galls can appear as quickly as a month prior to planting; nematodes prefer sandy soils and damage in areas of field or garden with this type of soil is most likely</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Plant resistant varieties if nematodes are known to be present in the soil ;check roots of plants mid-season or sooner if symptoms indicate nematodes; solarizing soil can reduce nematode populations in the soil and levels of inoculum of many other pathogens</t>
         </is>
@@ -2002,7 +2130,1693 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alternaria leaf blight</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alternaria cucumerina</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Small, yellow-brown spots with a yellow or green halo which first appear on the oldest leaves; as the disease progresses, lesions expand and become large necrotic patches, often with concentric patternation; lesions coalesce, leaves begin to curl and eventually die.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Disease is prevalent in growing areas where temperatures are high and rainfall is frequent.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cucurbits should be rotated with another crop every 2 years to reduce levels of inoculum; crop debris should be removed from the field as quickly as possible after harvest or plowed deeply into the soil; applications of appropriate protective fungicides can help to slow the development of the disease; water plants from the base rather than from above to reduce periods of leaf wetness which are conducive to the development and spread of disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anthracnose</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Colletotrichum orbiculare</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Brown roughly circular lesions with yellow edges on leaves on leaves, petioles, stems and/or fruit; lesions on resistant varieties appear tan with green edges; lesions dry out and drop out of leaves.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Disease favors warm temperatures.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Plant resistant varieties; use only certified seed; apply appropriate protective fungicides; rotate crops every year.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Belly rot  (Fruit rot, Damping-off)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rhizoctonia solani</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yellow/brown discoloration on fruit; water soaked spots on side of fruit in contact with soil; brown mold growing on rotting areas; collapse of seedlings.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Disease favors warm, humid conditions.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Till soil deeply prior to planting; use plastic mulch to create a barrier between fruit and soil; plant in sites with good drainage to avoid wet soils; apply appropriate protective fungicides when plants begin to vine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cercospora leaf spot</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cercospora citrullina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Initial symptoms of disease occur on older leaves as small spots with light to tan brown centers; as the disease progresses, the lesions enlarge to cover large areas of the leaf surface; lesions may have a dark border and be surrounded by a chlorotic area; the centers of the lesions may become brittle and crack.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fungus survives on plant debris; spread by wind and water splash; occurs mainly in tropical and subtropical growing regions.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Any diseased plants should be removed and destroyed to prevent further spread; crop debris should be removed after harvest or plowed deeply into the soil to reduce inoculum.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Downy mildew</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pseudoperonospora cubensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fluffy purplish mildew on underside of leaves; yellow spots on the upper side of leaves.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Oomycete</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Disease favors cool, humid conditions.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Do not overcrowd plants; avoid overhead irrigation, water plants from base; apply appropriate fungicide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Fusarium wilt (Cucumber wilt, Foot-rot)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fusarium oxysporum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rotting of seedling stems at soil line; brown lesions on one side of stem; discoloration of tissue inside vine.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Disease favors warm, moist soil.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plant fungicide treated seed; rotate crops on 4 year rotation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gummy stem blight (vine decline, GSB)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Didymella bryoniae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gray/green lesions between veins of leaves; tan or gray lesions on stems.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Disease may be seed-borne.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Use disease free seed; treat seeds prior to planting; rotate crops every 2 years.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Powdery mildew</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erysiphe cichoracearum
+Sphaerotheca fuliginea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The appearance of white powdery spots on the upper surfaces of leaves, stems and fruits. As the disease progress, white fungal growth covers whole leaves and stem. The infected leaves become yellow, distorted and may drop prematurely.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>The spores are carried by wind from one plant to another. The disease is favored by moderate temperature and shady conditions.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Grow available resistant varieties. If the disease is severe, spray suitable fungicide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Septoria leaf spot</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Septoria cucurbitacearum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Initial symptoms of disease are small dark water-soaked spots on the leaves which turn beige to white in dry conditions; lesions develop thin brown borders and the centers may become brittle and crack; small white spots may erupt on the surface of infected butternut and acorn squash and pumpkin fruit.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pathogen can survive on crop debris for periods in excess of 1 year.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scout plants during cool wet conditions for any sign of spots; early application of an appropriate protective fungicide can help limit the development of the disease if spots are found' cucurbits should be rotated with other crops every 2 years to prevent the build-up of inoculum; crop debris should be removed and destroyed after harvest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Target leaf spot</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Corynespora cassiicola
+Corynespora melonis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Angular yellow spots appear on older leaves; as the disease progresses, the spots enlarge and become circular with light brown centers and dark margins; as lesions mature, they turn gray and drop out leaving holes in the leaves; if fruits become infected early in their growth then the blossom end may darken and become shriveled.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fungus can survive on plant debris for periods in excess of 2 years; disease emergence favored by periods of high humidity and temperature.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plant resistant varieties; apply appropriate protective fungicide; sanitize equipment regularly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Verticillium wilt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Verticillium dahliae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Symptoms generally appear after fruit set; chlorotic leaves which develop necrotic areas; leaves collapsing; symptoms only on one side of vine; discoloration of vascular tissue in roots.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fungus can survive in soil for many years; disease emergence favored by cool or mild weather in Spring.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Do not plant in areas where other susceptible crops have been grown previously; delay planting until temperatures are warmer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Angular leaf spot</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pseudomonas syringae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Small water-soaked lesions on leaves which expand between leaf veins and become angular in shape; in humid conditions, lesions exude a milky substance which dries to form a white crust on or beside lesions; as the disease progresses, lesions turn tan and may have yellow/green edges; the centers of the lesions dry and may drop out leaving a hole in the leaf.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bacteria, Bacterium</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Spread through infected seed, splashing rain, insects and movement of people between plants; bacterium overwinters in crop debris and can survive for 2.5 years.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Use disease-free seed; do not grow plants in field where cucurbits have been grown in the previous 2 years; protective copper spray may help reduce incidence of disease in warm, humid climates; plant resistant varieties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Bacterial leaf spot</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Initial symptoms of the disease are the appearance of small water-soaked lesions on the undersides of the leaves which lead to the development of yellow patches on the upper leaf surface; the lesions become round and angular and may be mistaken for angular leaf spot; the centers of the lesions become thin and translucent and lesions become surrounded with a wide yellow halo.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bacteria is spread via infected seeds.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Use disease-free seed; do not grow plants in field where cucurbits have been grown in the previous 2 years; avoid overhead irrigation, water plants from the base instead to reduce the spread of bacteria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bacterial wilt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Erwinia tracheiphila</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Individual runners or whole plant begins to wilt and rapidly die; infected runners appear dark green in color but rapidly become necrotic as the disease progresses.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Can result in crop losses of of 75%; spread by striped or spotted cucumber beetles; disease can be confirmed by cutting the stem and slowly pulling the two ends apart - infected plants will ooze strings of bacterial exudate.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Control cucumber beetle populations on plants; hand pick adult beetles and destroy; soil and foliar application of appropriate insecticides may help to control populations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Aster yellows</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Phytophthora capsici</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Foliage turning yellow; secondary shoots begin growing prolifically; stems take on a rigid, upright growth habit; leaves are often small in size and distorted, may appear thickened; flowers are often disfigured and possess conspicuous leafy bracts; fruits are small and pale in color.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Phytoplasma</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Disease is transmitted by leafhoppers and can cause huge losses in cucurbit crops.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Remove any infected plants from the field to reduce spread; control weeds in and around the field that may act as a reservoir for the phytoplasma; protect plants from leaf hopper vectors with row covers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cucumber green mottle mosaic</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Phytophthora capsici</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Early symptoms on young plants include vein-clearing and the development of crumpled leaves; older plants develop bleached and/or chlorotic leaves. As the infection progresses, leaves develop mottling and become blistered and distorted. Leaf symptoms are very difficult to distinguish from other mosaic viruses of Cucurbits. Severity of symptoms varies depending on the strain of the virus.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>All Cucurbit species are susceptible to the virus, some cucumber varieties have been developed which have some resistance to the disease and are available in Canada and Europe.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>As the virus is spread primarily by infected seed, only disease-free seed from a reputable supplier should be planted. Seedlings and plants infected with the virus should be removed and destroyed to prevent spread. All seedlings/plants within a 3-5 ft radius of the infected plant should also be destroyed. The virus can be spread mechanically via tools and on hands, good sanitation should be practiced at all times to prevent virus transmission - disinfect all tools and equipment between uses by dipping in a solution of bleach or using a commercially available disinfectant such as Virkon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cucumber mosaic</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Phytophthora capsici</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Plants are severely stunted; foliage is covered in distinctive yellow mosaic; leaves of plant curl downwards and leaf size is smaller than normal; flowers on infected plants may be deformed with green petals; fruits become distorted and are small in size; fruit is often discolored.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Transmitted by aphids; virus has an extensive host range; virus can be mechanically transmitted via tools etc.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Control of the virus is largely dependant on the control of the aphid vectors; reflective mulches can deter aphid feeding; aphid outbreaks can be treated with mineral oils or insecticidal soap applications; some resistant varieties are available.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Squash mosaic</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Phytophthora capsici</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Symptoms vary with variety being grown but plants can show symptoms which include green veinbanding, mottled leaves, blisters, ring spots or potruding veins at leaf margins; some squash varieties may develop leaf enations; infected plants are often stunted and fruits may be malformed with mottled skin.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Virus can be transmitted through infected seed and spread by striped cucumber beetles.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Use only certified disease-free seed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Watermelon mosaic</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Phytophthora capsici</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Symptoms vary widely depending on species, cultivar, virus strain and environmental conditions; symptoms on leaves may include green mosaic patternation, green vein-banding, chlorotic rings and disfigured leaves.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Virus is found in almost all Cucurbit growing regions in the world; virus is spread by over 20 aphid species.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Treatments that control populations of aphid vectors can also reduce the incidence of the virus; spraying plants with mineral oils or insecticidal soaps can help to reduce aphid numbers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Phytophthora blight</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Phytophthora capsici</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>The disease can be found in all stages and all parts of the crop. On seedlings, the pathogen causes damping off symptoms where hypocotyl exhibit watery rot or rotting of the stem near the soil line, resulting in plant death. The Mature plants exhibit crown rot symptoms. The post-emergence infection leads to wilting and death of the plant.
+During the growing season, vine exhibit dark olive water soaked lesion which later become brown resulting in girdling of the stem that leads to quick collapse and death of foliage (vine blight). On leaves shows necrotic spots with chlorotic to olive-green borders. As the disease progress, this spot merges and cover entire leaf.
+On fruits, disease can occur from fruit set to harvest and storage. The appearance of water soaked lesions on fruit, particularly near the surface which is touching the soil. Later these lesions expand, resulting in rioting. The infected fruit is covered with white mold numerous sporangia.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Oomycete</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Rain and overhead irrigation helps in spreading pathogen from plant to plant.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Use disease free seed materials. Follow crop rotation. Spray suitable fungicide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pythium fruit rot (Cottony leak)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pythium</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The symptoms first appear in the area of fruit which is in contact with soil as small, water-soaked spots. These spots spread very fast to a large portion of fruit resulting in soft and necrotic area. If the condition is favorable, heavy growth of white fungal mass which resembles the tufts of cotton can be seen on infected area.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>The disease is favored by wet condition. The pathogen spreads via water and soil particles.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Avoid excessive soil moisture. Mulching with suitable materials help in preventing the disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Scab</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cladosponum cucumerinum</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The leaves exhibit small water-soaked or pale green spots which later turn white to gray and become angular. A yellowish halo may surround the lesion. The damaged leaves may appear ragged due to tearing and cracking of dead tissue. Symptoms can also be seen on petiole and stem. 
+On fruits, the appearance of small, gray, slightly sunken, oozing, gummy spots which later enlarge, and finally become distinct sunken cavities. Under favorable condition, the pathogen produces dark, olive green, velvety layer of spores on the cavities.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>The pathogen overwinters on the seed, in crop debris and in soil.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Remove and destroy the infected leaves and plant debris. Keep the field free from weeds. Use disease free seeds. Grow available resistant varieties. Follow crop rotation. Spray with suitable fungicides.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Aphids (Peach aphid, Melon aphid)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Myzus persicae
+Aphis gossypii</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Small soft bodied insects on underside of leaves and/or stems of plant; usually green or yellow in color, but may be pink, brown, red or black depending on species and host plant; if aphid infestation is heavy it may cause leaves to yellow and/or distorted, necrotic spots on leaves and/or stunted shoots; aphids secrete a sticky, sugary substance called honeydew which encourages the growth of sooty mold on the plants.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Insects</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Distinguishing features include the presence of cornicles (tubular structures) which project backwards from the body of the aphid; will generally not move very quickly when disturbed.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>If aphid population is limited to just a few leaves or shoots then the infestation can be pruned out to provide control; check transplants for aphids before planting; use tolerant varieties if available; reflective mulches such as silver colored plastic can deter aphids from feeding on plants; sturdy plants can be sprayed with a strong jet of water to knock aphids from leaves; insecticides are generally only required to treat aphids if the infestation is very high - plants generally tolerate low and medium level infestation; insecticidal soaps or oils such as neem or canola oil are usually the best method of control; always check the labels of the products for specific usage guidelines prior to use.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cabbage looper</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Trichoplusia ni</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Large or small holes in leaves; damage often extensive; caterpillars are pale green with a white lines running down either side of their body; caterpillars are easily distinguished by the way they arch their body when moving; eggs are laid singly, usually on the lower leaf surface close to the leaf margin, and are white or pale green in color.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Insects overwinter as pupae in crop debris in soil; adult insect id a dark colored moth; caterpillars have a wide host range.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Looper populations are usually held in check by natural enemies; if they do become problematic larvae can be hand-picked from the plants; an organically acceptable control method is the application of Bacillus thuringiensis which effectively kills younger larvae; chemical sprays may damage populations of natural enemies and should and should be selected carefully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cucumber beetles (Western striped cucumber beetle, Western spotted cucumber beetle, Banded cucumber beetle)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Acalymma vittata
+Diabrotica undecimpunctata
+Diabrotica balteata</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Stunted seedling; damaged leaves, stems and/or petioles; reduced plant stand; plants may exhibit symptoms of bacterial wilt; scars on fruit caused by beetle feeding damage; adult beetles are brightly colored with either a green-yellow background and black spots or alternating black and yellow stripes.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Beetles overwinter in soil and leaf litter and emerge from soil when temperatures begin to reach and exceed 12.7°C (55°F).</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Monitor new planting regularly for signs of beetle; floating row covers can be used to protect the plants from damage but will need to be removed at bloom to allow bees to pollinate plants; applications of kaolin clay can be effective for management of small beetle populations; application of appropriate insecticides may be necessary.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cutworms</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Agrotis</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Stems of young transplants or seedlings may be severed at soil line; if infection occurs later, irregular holes are eaten into the surface of fruits; larvae causing the damage are usually active at night and hide during the day in the soil at the base of the plants or in plant debris of toppled plant; larvae are 2.5–5.0 cm (1–2 in) in length; larvae may exhibit a variety of patterns and coloration but will usually curl up into a C-shape when disturbed.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Insects</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cutworms have a wide host range and attack vegetables including asparagus, bean, cabbage and other crucifers, carrot, celery, corn, lettuce, pea, pepper, potato and tomato.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Remove all plant residue from soil after harvest or at least two weeks before planting, this is especially important if the previous crop was another host such as alfalfa, beans or a leguminous cover crop; plastic or foil collars fitted around plant stems to cover the bottom 3 inches above the soil line and extending a couple of inches into the soil can prevent larvae severing plants; hand-pick larvae after dark; spread diatomaceous earth around the base of the plants (this creates a sharp barrier that will cut the insects if they try and crawl over it); apply appropriate insecticides to infested areas of garden or field if not growing organically.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Flea beetles</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Epitrix</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Small holes or pits in leaves that give the foliage a characteristic “shothole” appearance; young plants and seedlings are particularly susceptible; plant growth may be reduced; if damage is severe the plant may be killed; the pest responsible for the damage is a small (1.5–3.0 mm) dark colored beetle which jumps when disturbed; the beetles are often shiny in appearance.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Insects</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Younger plants are more susceptible to flea beetle damage than older ones; older plants can tolerate infestation; flea beetles may overwinter on nearby weed species, in plant debris or in the soil; insects may go through a second or third generation in one year.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>In areas where flea beetles are a problem, floating row covers may have to be used prior to the emergence of the beetles to provide a physical barrier to protect young plants; plant seeds early to allow establishment before the beetles become a problem - mature plants are less susceptible to damage; trap crops may provide a measure of control - cruciferous plants are best; application of a thick layer of mulch may help prevent beetles reaching surface; application on diamotecoeus earth or oils such as neem oil are effective control methods for organic growers; application of insecticides containing carbaryl, spinosad, bifenthrin and permethrin can provide adequate control of beetles for up to a week but will need reapplied.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Stinkbugs (Various)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Frankliniella occidentalis
+Thrips tabaci</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Dark colored pinpricks on fruit surrounded by a lighter area that turns yellow or remains light green; stink bugs often carry pathogens in their mouthparts which can cause secondary infections and decay of fruit; adult insect is shield-shaped and brown or green in color; may have pink, red or yellow markings; eggs are drum shaped and laid in clusters on the leaves; larvae resemble the adults but are smaller.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Adult insects overwinter under leaves, on legumes, blackberries or on certain weeds such as mustard or Russian thistle.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Remove weeds around crop which may act as overwintering sites for stink bugs and practice good weed management throughout the year; organically accepted control methods include the use of insecticidal soaps, kaolin clay and preservation of natural enemies; chemical treatments are not recommended for tomatoes that are to be processed for paste or canning unless secondary infections with other pathogens are a concern.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Thrips (Western flower thrips, Onion thrips, etc.)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Frankliniella occidentalis
+Thrips tabaci</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>If population is high leaves may be distorted; leaves are covered in coarse stippling and may appear silvery; leaves speckled with black feces; insect is small (1.5 mm) and slender and best viewed using a hand lens; adult thrips are pale yellow to light brown and the nymphs are smaller and lighter in color.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Transmit viruses such as Tomato spotted wilt virus; once acquired, the insect retains the ability to transmit the virus for the remainder of its life.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Avoid planting next to onions, garlic or cereals where very large numbers of thrips can build up; use reflective mulches early in growing season to deter thrips; apply appropriate insecticide if thrips become problematic.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bacterial wilt</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ralstonia solanacearum</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Green leaves infected with the pathogen roll and curl ("green wilt"); leaves turn yellow then necrotic; plants become stunted and die; rhizomes are discolored and water-soaked and may be rotting inside.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Disease is spread via movement of infested soil; bacteria survive in the soil on plant debris.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Plant ginger in well draining soils where ginger had not previously been grown; plant only pathogen free seed; plant ginger on hills to aid soil drainage and promote air flow around the rhizome; rotate ginger with non-hosts of bacterial wilt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dry rot</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fusarium and Pratylenchus complex</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Initially the lower leaves exhibit yellow tips followed by complete yellowing. As the disease progress, the upper leaves become yellow. Later the leaves become dry and whole plant appears stunted.
+Infected rhizome shows brownish ring particularly at cortical region.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungus and Nematode</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Favors waterlogged fields. Always occurs in patches. When comparing to soft rot the dry rot infected stem won't come off with a gentle pull.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Treating seed with Bordeaux mixture prior to planting and solarizing the soil can help to reduce the incidence of the disease.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rhizome rot/Soft rot/Pythium rot</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pythium aphanidermatum
+ P. vexans
+P. myriotylum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Stunted plant growth; yellow leaves and stems; brown discoloration of water conducting tissue within stem; root system rotted, mushy and turning black; rotted rhizome gives off a foul odor.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Disease favors warm, moist soils; spread primarily through use of infected seed pieces which may not show any outward signs of disease.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Plant ginger in well-draining soils or on hills created by tilling; do not plant any seed pieces which show symptoms of disease; seed pieces can be treated with hot water (50°C/122°F for 10 min) or appropriate fungicides prior to planting; destroy all crop debris after harvest; keep fields weed free; do not grow ginger for more than one year in same area.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chinese rose beetle</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adoretus sinicus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>"Shot-hole" appearance of leaves; entire leaf consumed with the exception of the leaf veins; adult insect is a reddish-brown beetle which feeds on plants at night.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chinese rose beetles are nocturnal.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chinese rose beetles are attracted to dim light and repelled by bright light, shining bright light on plants may help deter them from feeding; covering young plants with e.g. floating row covers can help to protect plants until they are old enough to withstand attacks by the beetle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Root-knot nematode and Burrowing nematode</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Meloidogyne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Root knot nematode: Water soaked lesions on roots; Galls on roots which can be up to 3.3 cm (1 in) in diameter but are usually smaller; reduction in plant vigor; yellowing plants which wilt in hot weather.
+Burrowing nematode: The appearance of small, water-soaked shallow lesions on rhizome which later turn brown. This lesion merges together and leads to rotting. Infected plants show yellow leaves with less number of shoots and stunted growth.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nematode</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Galls or lesions can appear as quickly as a month prior to planting; nematodes prefer sandy soils and damage in the areas of the field or garden with this type of soil is most likely.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plant resistant varieties if nematodes are known to be present in the soil ;check roots of plants mid-season or sooner if symptoms indicate nematodes; solarizing soil can reduce nematode populations in the soil and levels of inoculum of many other pathogens. Treating rhizome with hot water (51°C for 10 minutes) before planting reduces burrowing nematode problem.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anthracnose</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Colletotrichum gloeosporioides</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Leaves dropping prematurely; leaves covered in dark fungal spores; red to green or black streaks on the mature fruits</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Disease common during wet Springs or long periods of wet weather late in season</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>If disease is damaging then appropriate fungicides should be applied to whole tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Armillaria root rot (Mushroom root rot)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Armillaria mellea</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Trees may wilt suddenly and collapse or decline slowly; leaves become chlorotic and drop from tree; if large parts of root are destroyed then whole canopy is affected; trunk may have area of rotting bark at the base; lesions on the trunk resemble Phytophthora gummosis; clusters of mushrooms may be present at the bottom of the tree and fan shaped mycelial mats are often present between the bark and the wood</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Healthy trees are usually infected by infected pieces of wood or tree stumps which have been left in the ground after an orchard is cleared</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Disease is difficult to control once it becomes established in an orchard; affected trees showing signs of decline should be removed along with as much of the roots system as possible; area where infected tree was should not be replanted with health citrus for a period of at least one year; fumigating soil can help to reduce soil inoculum but is not always completely effective</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Black root rot</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thielaviopsis basicola</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Small brown-black lesions on roots which may coalesce and turn entire root black; root cortex may slough off to reveal the vascular tissue below; leaves of plant may be chlorotic</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Serious disease of glasshouse grown citrus trees; pathogen usually drops to non-damaging levels after tree is transplanted to the field</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Keep glasshouses well lit and warm during winter to encourage vigorous root growth; use good quality potting soil which provides goo aeration</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Blast</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pseudomonas syringae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Water-soaked or black lesions on leaf petioles;which rapidly expand along the leif midrib; cankers on twigs and branches; twigs may be girdles and die; leaves turning black and dying; black lesions may be present on fruit</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Symptoms most severe on south facing side of tree exposed to winds</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>In areas where disease is severe, copper fungicides should be applied in Fall and WInter prior to the first rains</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brown rot</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phytophthora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Water-soaked lesions on fruit close to maturation; leather tan to dark brown lesions on fruit; lesions with a pungent smell; leaves, twigs and flowers may be turning brown</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Oomycete</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Disease emergence favored by cool, wet conditions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cultural control methods should focus on reducing leaf wetness e.g. mowing around trees to prevent grasses growing too long, proper irrigation management, pruning branches hanging low to the ground etc.; if fruit become infected, harvest should be delayed to allow all infected fruit to drop to the ground and minimizing contamination in the harvest; applications of copper fungicides to foliage can help protect the trees</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Melanose</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diaporthe citri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Small brown sunken spots which become raised and surrounded by a yellow halo; lesions eventually turn corky in texture; severe infections can cause newly emerging leaves to be crinkled and distorted; if infection of fruit occurs soon after petal fall, the pathogen causes large lesions on the fruit surface which may coalesce to produce large patches; late infection of fruit causes discrete pustules on the fruit</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Disease is spread short distance through splashing water or over longer distances by wind</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>If young trees become infected, it is possible to control the disease by pruning but this is not usually feasible for older trees; fungicides must be applied frequently in order to control the disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Citrus canker</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xanthomonas axonopodis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Raised lesions on leaves, often at leaf margin or tip; lesions may also be present on twigs and fruits; young lesions are usually surrounded by yellow halo; depressed brown craters formed from collapse of lesions</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bacteria survive in lesions; the main method of spread is via wind driven rain; bacteria may enter through pruning wounds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>If the disease is introduced to an area, all infected trees should be removed and destroyed; in areas where disease is endemic, windbreaks can help to reduce disease severity; cultural control of the disease should focus on controlling leaf miner populations, utilizing wind breaks and applications of copper sprays</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Huanglongbing (Citrus greening)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Candidatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Leaf symptoms of citrus greening include yellowing of one limb or one area of canopy, yellowing of leaf veins; blotchy mottling and/or green islands (spots) surrounded by completely yellow leaf tissue; twig and limbs begin to die back; fruits may drop prematurely and are often mishappen and lopsided; fruit has a bitter, salty taste</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>History
+Origins and spread
+Huanglongbing, or citrus greening, was first reported from Southern China in 1919 by American botanist Otto August Reinking who described a “yellow shoot” disease of citrus while evaluating diseases of economic plants in Southern China. A subsequent field survey conducted between 1941 and 1955 on citrus plants in the provinces of Guangdong, Fujian and Jiangx by Chinese plant pathologist Lin Kongxiang (Kung Hsiang) determined that that the disease likely originated in Chaozhou county in Guangdong as early as the 1870s. Lin adopted the name the local farmers had given to the disease of “huang long bing”, which translates to “yellow dragon disease”, a reference to the yellow coloration of new shoots on the infected trees. By 1936 Huanglongbing was considered a serious disease of citrus in China and it subsequently spread across Southeast Asia reaching Indonesia in 1948 and Taiwan in 1950 before spreading to the Philippines, Thailand and Malaysia in the 1950s, 60s and 70s respectively. The disease has been known by various names in different countries - “greening” in South Africa, “mottle leaf” in the Philippines, “dieback” in India and “vein phloem degeneration” in Indonesia - but in 1995 the disease was officially named Huanglongbing by the International Organization of Citrus Virologists (IOCV) and this name is now widely used to describe the disease in Africa, America and Asia. 
+Biology and ecology
+The organism that causes Huanglongbing is a Gram-negative bacterium that is limited to the plant phloem - the plant system responsible for the delivery of sugars from the leaves to the growing parts of the plant. The bacteria involved have so far not been isolated and cultured but the disease is believed to be caused by bacteria belonging to the genus Candidatus Liberibacter. It is believed that there are at least two different forms of the disease, an African heat-sensitive form, L. africanus which survives in cool areas with temperatures below 30-32 C, and an Asian heat-tolerant form which occurs in areas where temperatures greatly exceed 30C. A third species, L. asiaticus, found in .A third species, L. americanus was detected in citrus trees in Sao Paulo, Brazil but there is presently little information on its climatic requirements. As this species is found in the same areas as L. asiaticus it seems likely that is has similar requirements. 
+Transmission
+Huanglongbing can be transmitted by citrus psyllids or by grafting. The Asian citrus psyllid, Diaphorina citri is responsible for the spread of the disease in Asia and Oceania, Brazil and North America whereas the African citrus psyllid, Trioza erytreae is the main vector in Africa and Madagascar. Both psyllid species are present the Indian Ocean islands of Reunion and Mauritius,
+Citrus psyllids
+Citrus psyllids are tiny (3-4 mm) sap-sucking insects that excrete a sticky, sugary substance called honeydew. Both the Asian and African citrus psyllids are mottled brown in color but the Asian citrus psyllid possesses a brown head and the African species has a black head. Adult citrus psyllids will jump and/or fly for a short distance when they are disturbed. They are usually found on the undersides of leaves, often in high numbers. When a psyllid feeds on an infected plant, it acquires the disease after 15 to 30 minutes and feeding and is able to transmit the disease to new hosts after a period of 21 days. In order to transmit the disease successfully, the psyllids need only feed on a new host for a period of 15 minutes in order for successful transmission to occur. It is hypothesized that the bacterium multiplies within the body of the psyllid prior to transmission but this theory requires validation through experiments. 
+Grafting
+Although the primary method of spread of the Huanglongbing bacterium is via the movement of citrus psyllids, the disease can also be transmitted through grafting practices. The ability of Huanglongbing to be transmitted by grafting was first demonstrated by Lin Kongxiang through experimental work which was published in 1956. The disease in not transmitted at high rates through grafting as as not all buds on infected trees contain the bacterium.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Control
+(i) Cultural control
+Once a tree becomes infected with HLB, it cannot be cured. Control is therefore reliant on preventing the disease occurring in the first place and this is achieved through strict quarantining to prevent the introduction of citrus psyllids to areas which are currently free of the pest. Areas which are subject to quarantine have restrictions placed on the movement of citrus plants, fruit, equipment and items made from citrus. 
+Infected trees should be removed as quickly as possible from plantations and destroyed. Identification of infected trees should be achieved through several surveys to ensure that infected trees which are not yet showing symptoms are identified. In Florida, the recommendation is to scout groves at least 4 times a year for disease symptoms.
+(ii) Control of citrus psyllids
+Citrus psyllid populations can be controlled through the application of chemical sprays. Insecticides have proved very effective at controlling T. eryreae in South Africa where systemic insecticides are applied to the tree at the base of the trunk. In areas of the USA, Citrus health management areas (CHMAs) have been created to encourage neighbouring growers to work together to prevent the disease. Control strategies which have been implemented by the program include scouting, mapping and large-scale spraying to control citrus psyllids.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Stubborn disease</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Spiroplasma citri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Stunted trees; leaves shorter and broader, cupped and upright; may be chlorotic or have a mottled appearance; stunted, malformed fruits and low yield</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Transmitted by leafhoppers; can cause serious losses in hot, dry conditions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plant only material from disease-free budwood; if disease is endemic to the are then nursery trees should be grown in an enclosure to protect the trees from vectors; if a young orcahrd becomes infected, it should be removed and replanted with healthy material</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Phytophthora gummosis</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Phytophthora</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Sap oozing from cracks in bark; bark cracking, drying and falling off; lesions girdling trunk; severely infected trees have pale green leaves with yellow veins</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Oomycete</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Disease can develop rapidly in moist, cool conditions; spread by water splash</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Only plant disease-free nursery stock; plant trees in well-draining soil and avoid injuries to bark on trunk; trunk wraps can provide protection from freezing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tristeza disease</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Toxoptera aurantii</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Light green foliage; poor new growth; leaves may be dropping from tree; young trees blooming early; severely infected trees are stunted and bushy in appearance with chlorotic leaves and brittle twigs; some strains of the virus cause elongated pits in the trunk and branches which give the wood a rope-like appearance</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Disease spread from infected grafting material or by aphids</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Quarantine procedures are used to control tristeza and prevent the pathogen from entering areas which are currently free of the disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aphids (Black citrus aphid)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Toxoptera aurantii</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Leaves curling; leaves and twigs covered in sticky substance which may be growing sooty mold; trees may show symptoms of tristeza (see entry); insects are small and soft bodied  and are black in color</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aphids transmit tristeza virus on citrus</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Aphid numbers tend to naturally decline as leaves harden off but can be a problem on young trees or varieties which continually produce flushes of new growth; pesticides are not generally recommended due to resistance and trees can withstand a high degree of leaf curling</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Asian citrus psyllid</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Diaphorina citri</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tips of leaves in new growth flushes are twisted and affected leaves do not expand properly; trees may show symptoms of citrus greening (see disease entry); the insect is tiny (4 mm in length) and has a mottled brown appearance; it feeds by inserting its mouthpaarts into the plant and sucking plant sap and as well as injecting toxins into the plant, it also transmits the deadly citrus greening disease; the insect feeds at an angle to the plant which makes it resemble thorns on the plant leaves</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>The Asian citrus psyllid attacks all varieties of citrus</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>In the home garden, frequent applications of organic pesticides can be used to control the Asian citrus psyllid; applications must be frequent to be effective as these chemicals are usually very short lived in the environment; parasitic wasps have been released in California to control the psyllid in residential areas; in commercial orange production insecticides should be applied to control the insects as the spread of citrus greening has the potential to devastate commercial citrus production</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2051,49 +3865,50 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algal leaf spot</t>
+          <t>Anthracnose and charcoal spot</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cephaleuros virescens</t>
+          <t>Colletotrichum gleosporoides</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Orange rusty spots on both upper and lower leaf surfaces which may coalesce to form large irregularly shaped patches; scraping away the orange spots reveals a grayish discoloration of the leaf lamina underneath</t>
+          <t>Small water-soaked lesions of fruit during ripening; circular sunken lesions with light brown margins.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alga</t>
+          <t>Fungus
+Is caused by Glomerellacingulata, primarily infecting the fruit. The disease appears as small water-soaked circular spots that enlarge into brown-black sunken lesions as the fruit ripens. Fungicidal sprays can control this disease. A 20-minute hot-water dip (45°C) reduces post-harvest decay.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Disease affects many fruit trees in the tropics; infection is unsightly but often harmless</t>
+          <t>Fungi spread by wind and rain; disease emergence favored by high temperature and humidity; disease can have a serious impact on refrigerated fruit for export.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ensure that trees are properly pruned and fertilized to promote vigor; remove all weeds from around tree bases; employ a wider tree spacing to increase air circulation around the trees; badly infested trees can be treated with copper containing fungicides</t>
+          <t>Appropriate protective fungicides should be applied; dipping fruits in hot water at 48°C for 20 minutes reduces the incidence of the disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anthracnose</t>
+          <t>Black rot</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colletotrichum gleosporioides</t>
+          <t>Mycosphaerella caricae</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Small, dark spots on flowers; spots coalesce to cover entire panicle; infected flowers dropping from tree; dark flecks or spots with yellow halo on young leaves; dark, irregular, sunken lesions on fruit; fruits dropping from tree before ripe</t>
+          <t>Black sunken rot on young fruits originating from stem end or contact with a leaf; young fruit withering and dropping from plant; small, brown sunken lesions with light brown margins on ripening fruit.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2103,29 +3918,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Disease emergence favored by wet conditions; serious disease of mango wherever it is grown</t>
+          <t>Fungi enters fruit through wounds.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Susceptible mango varieties should be protected with fungicide in commercial production and the timing of the applications are critical to successful control; appropriate fungicide should be applied during flowering and fruit development</t>
+          <t>Appropriate protective fungicides should be applied; dipping fruits in hot water at 48°C for 20 minutes reduces the incidence of the disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Phoma blight</t>
+          <t>Black spot</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phoma glomerata</t>
+          <t>Asperisporium caricae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Angular or irregular brown lesions on old leaves; lesions may develop gray centers and dark margin; withering leaves; defoliation of tree</t>
+          <t>Circular water-soaked or brown lesions on older leaves; centers of lesions become bleached as they mature; leaves curling and turning brown; raised lesions on trunks; sunken circular lesions on fruit.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2133,27 +3948,31 @@
           <t>Fungus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Disease spread by wind and rain; disease emergence favored by cool weather interspersed with moisture from dew or rain.</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>If pink disease is identified the recommended treatment is an application of an appropriate fungicide which can be applied by spraying or painting onto infected bark with a paintbrush</t>
+          <t>Disease may require applications of appropriate fungicides for adequate control.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pink disease</t>
+          <t>Cercospora black spot</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Erythricium salmonicolor</t>
+          <t>Cercospora papayae</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>White, silk-like threads at forks of branches which coalesce to form a pink crust during wet conditions; twigs and branches above this site may be killed and foliage will begin to dry out and die; orange pustules may be present on infected bark</t>
+          <t>Tiny black dots on fruit which enlarge to 3 mm across; spots are slightly raised and although indistinct on unripe green fruit, become visible on ripening to yellow; lesions on leaves are irregular in shape and gray-white in color; if infestation is severe, leaves may turn yellow and necrotic and drop from plant.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2163,12 +3982,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pink disease is a destructive disease of mango grown in the wet tropics</t>
+          <t>Disease usually enters orchard from infected papaya leaves in adjacent orchards.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>If pink disease is identified the recommended treatment is an application of an appropriate fungicide which can be applied by spraying or painting onto infected bark with a paintbrush</t>
+          <t>Applications of appropriate protective fungicides at intervals of 14 to 28 days provide satisfactory control of the disease.</t>
         </is>
       </c>
     </row>
@@ -2180,12 +3999,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Odium mangiferae</t>
+          <t>Oidium caricae-papayae</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gray-white powdery growth on leaves, flowers and/or fruit; curled, distorted shoots; fruit aborted and dropping from tree</t>
+          <t>Infect all parts of tree. The infected leaves show white mycelial growth commonly on under surface , particularly near leaf veins. Some time white mycelial growth can also seen on upper leaf surface. The infected area becomes light green and chlorotic (lesions) with dark green margin.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2195,64 +4014,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Found in all mango growing regions; outbreaks sporadic but can be severe</t>
+          <t>Powdery mildew pathogens are saprophytic need living host for survival and growth. The pathogen is favored by high humidity and low sunlight.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fungicides are very effective at controlling powdery mildew if applied at the first sign of the disease; chemical sprays only need be applied at flowering and fruit set</t>
+          <t>Remove the infected parts and dispose them properly. Avoid irrigating the trees by sprinkler. Provide proper nutrition to trees to withstand powdery mildew infection. If the disease is severe, apply suitable fungicides.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sooty mold</t>
+          <t>Bacterial canker and decline</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris</t>
+          <t>Erwinia</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The leaves, twigs, inflorescence and fruits are covered with shiny black and sticky growth of fungal mycelium. The sooty mold won't cause any direct infection to plants, but it may effect the photosynthetic process which may cause premature aging and death of leaves. Also plants may show stunted growth.</t>
+          <t>Angular water-soaked lesions on leaves; lesions coalesce and spread along leaf veins; witling leaves, particularly at top of canopy; water-soaked lesion and cankers on stem; cankers girdle stem and cause plant to collapse; small water-soaked lesions on green fruit.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fungus</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sooty mold mainly develops on honey dew secreted by sap sucking insects like whiteflies, aphids, leaf hoppers, scale insects, mealybugs and psyllids. Also this insects are always associated with ants.</t>
+          <t>Bacteria survive in lesions and cankers.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1. If plants are small wash mold with strong stream of water
-2. Spraying starch also removes sooty mold
-3. Control sap sucking insects
-4. Also keep the trees free from ants by applying a sticky compound around the trunk .</t>
+          <t>Dipping fruits in hot water at 48°C for 20 minutes reduces the incidence of the disease and is currently the only method of control.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bacterial black spot (Bacterial canker)</t>
+          <t>Internal yellowing</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris</t>
+          <t>Enterobacter cloacae</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Angular, water-soaked spots on leaves which coalesce and turn black; black cankerous lesions on stems which crack and exude a gummy substance; irregular black lesions on fruits which extend into the flesh and exude gum; fruits dropping from plant</t>
+          <t>Flesh of ripe fruit discolored yellow; discolored areas soft with spreading margins; rotting odor.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2262,143 +4078,125 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bacterial black spot is found in most tropical and subtropical areas where mango is grown</t>
+          <t>Disease found in Hawaii.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Provide windbreaks for plants; prune out infected twigs; protective sprays of copper during wet weather help to protect plants from the disease</t>
+          <t>Dipping fruits in hot water at 48°C for 20 minutes reduces the incidence of the disease and is currently the only method of control.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fruit fly</t>
+          <t>Bunchy top</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ceratitis cosyra</t>
+          <t>Rickettsia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The adult female flies lay egg just under the skin of semi repine fruits. The maggots develop and feed inside the fruit, causing the flesh to turn brown and soft which emits foul smell. This damage also act as entry site for fungal and bacterial pathogens.</t>
+          <t>Chlorosis of young leaves; water-soaked spots on petioles and stems; petioles rigid, horizontal and shortened; thickened leaf blades that cup downward; internodes shorten and growth stops resulting in a bunchy appearance to the plants.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Insect</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The mature maggots fall out of the fruits and pupate in soil.</t>
+          <t>Transmitted by leaf hoppers.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1. Collect the fallen fruits and destroy them.
-2. Also harvest fruits early to reduce flies damage .
-3. Use traps to monitor fruit flies. Traps can be purchased in the market or one can prepare themselves. Take plastic container with lids (one quarts yogurt container is fine). Drill holes (10 to 16 holes) that are 3/16-inch in diameter around the upper side of the container. Add 1 to 2 inch of pure apple cider vinegar (not flavored one) and a drop of unscented liquid dishwashing soap into the container. Hang the container in shade near berry trees before fruits ripening and check the traps frequently for flies. Change the vinegar every week.
-5. Spraying protein bait under leaf surface attract flies to single spot which make easier to kill them. 
-4. If infestation is severe spray suitable insecticide.</t>
+          <t>Use of tolerant varieties of papaya is currently the only method of control recommended.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mango hoppers</t>
+          <t>Papaya ringspot</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Idioscopus clypealis
-Idioscopus nitidulus
-Amritodus atkinsoni</t>
+          <t>Phytophthora palmivora</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Reduced plant vigor; sticky substance coating leaves; may be a growth of sooty mold on sticky residues; curling and drying leaves</t>
+          <t>Dark green rings on fruit which may be slightly sunken and become less distinct as the fruit ripens; fruits may have uneven bumps; leaves often exhibit a bright yellow mosaic pattern and new leaves are small and plant growth is stunted.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Insects</t>
+          <t>Virus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Insect emergence favored by shady and humid conditions</t>
+          <t>Virus is transmitted by several aphid species.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1. Collect and burn fallen leaves and twigs.
-2. Flooding orchard with water during October kills egg present in soil. Also deep ploughing in November exposes egg to sunlight.
-3. After hatching the nymphs start climbing tree and suck sap. To avoid this band the tree trunks with polythene sheet (400 gauge, 30 cm wide) at a height of about 30 cm from the ground level and apply grease at the lower edge of band. Or you can use Funnel Type Slippery Traps.
-4. To control insects already on tree you can spray fish oil rosin soap or azadirachtin (neem products).
-5. Also soil application of the spores of the fungus, Beauveria bassiana helps in reducing mealybug population.
-6. If infestation is severe you can spray suitable insecticides</t>
+          <t>Infected plants should be removed and destroyed to prevent spread of the virus; new planting materials should be free of the virus; intercropping papaya with a non-host such as corn can help to reduce the incidence of the disease in papaya orchards by providing aphid vectors with an alternative feeding site.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mango mealybugs</t>
+          <t>Phytophthora fruit rot  (Stem rot)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Drosicha mangiferae</t>
+          <t>Phytophthora palmivora</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Both nymphs and female insects sucks sap form all parts mango tree (i.e., tender leaves, shoots and inflorescence). The infected inflorescences may dry up affecting the fruit set and may cause fruit drop. Severely infected plants may show wilting and thereby affect fruit setting.</t>
+          <t>Water-soaked lesions on unripe fruit that oozes latex; withering fruit; water-soaked lesions on leaf scars of fruit bearing stem; mature fruit covered in white mycelium.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Insect</t>
+          <t>Oomycete</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>a. Mealybugs lay eggs in soil near tree trunk. 
-b. The mealybugs secrete the honey dew which causes sooty mold. 
-c. It feeds on wide range of plant species.</t>
+          <t>Fungi survive in soil and enter through wounds in stem; disease often emerges after hurricane damage.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1. Collect and burn fallen leaves and twigs.
-2. Flooding orchard with water during October kills egg present in soil. Also deep ploughing in November exposes egg to sunlight.
-3. After hatching the nymphs start climbing tree and suck sap. To avoid this band the tree trunks with polythene sheet (400 gauge, 30 cm wide) at a height of about 30 cm from the ground level and apply grease at the lower edge of band. Or you can use Funnel Type Slippery Traps.
-4. To control insects already on tree you can spray fish oil rosin soap or azadirachtin (neem products).
-5. Also soil application of the spores of the fungus, Beauveria bassiana helps in reducing mealybug population.
-6. If infestation is severe you can spray suitable insecticides</t>
+          <t>Disease can be controlled through the use of appropriate protective fungicides such as mancozeb or copper sulfate; root rot in seedlings can be prevented by planting in holes filled with soil in which papaya has never been grown - by the time the roots extend out of the added soil the plant is no longer susceptible to the disease.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mango tree borer</t>
+          <t>Papaya mealybug</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Batocera rufomaculata</t>
+          <t>Paracoccus marginatus</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mango tree borer damage may first be noticed as circular holes in the bark. This damage indicates that the tree has been attacked by borers which have chewed exit holes in the wood. Mango tree borers feed on the bark of twigs and chew green growing tips; when feeding damage is severes, branches may be killed and the main stem of the tree may collapse; insect frass (feces) collects in cracks in the bark and around the base of the tree; holes become visible in the bark.</t>
+          <t>Flattened oval to round disc-like insect covered in cottony substance on tree; chlorosis, plant stunting, leaf deformation, early leaf and fruit drop insects attract ants which may also be present; insect colony may also be associated with growth of sooty mold due to fungal colonization of sugary honeydew excreted by the insect.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2408,30 +4206,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mango tree borers are a pest of mango trees in many parts of Asia, Africa, Central America, the Caribbean and the Solomon Islands; female tree borers lay their eggs in an incision made in damaged mango bark; larvae bore through the wood as they feed and eventually pupate within the tree; adult insects emerge from an exit hole that they cut in the wood. adult insects are 25–55 mm long with distinctive long antennae which extend the length of the body</t>
+          <t>Insects have a wide host range; often tended by ants which farm them for their sugary honeydew secretions; transmit Cocoa swollen shoot virus.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Application of appropriate insecticide to the trunk and branches of the tree when adult insects are present acts to kill any eggs and larvae that are present; insecticide applied to growing twigs and green shoots may deter adult feeding; probing injury sites with a knife or piece of wire can help to destroy larvae and eggs</t>
+          <t>Mealybugs can potentially be controlled by natural enemies such as lady beetles but are commonly controlled using chemicals; chemical pesticides may also decrease populations of natural enemies leading to mealybug outbreaks.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>White Mango Scale</t>
+          <t>Scale insects (White peach scale)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aulacaspis tubercularis</t>
+          <t>Pseudaulacaspis pentagona</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Scale insects suck the sap from leaves, branches and fruits which causes defoliation, drying up of young twigs, poor blossoming and also affect the quality of fruits by causing conspicuous pink blemishes. Infestation of young plants results in retard growth. In case of severe infestation the fruits may fall prematurely, whereas the mature fruits are reduced in size.
-Another major problem with scale insect is the development of sooty mold due to honeydew secretion.</t>
+          <t>Scale insects cause damage by feeding on twigs, branches and fruit, injecting toxins into the plant as they do so; if the infestation is heavy, gumming may occur on the bark and twigs or entire branches can be killed; insects are flattened discs, or "scales" with no visible legs; scales produce a white waxy coating which eventually turns black (black cap stage).</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2441,12 +4238,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>The insect have wide host range and can be seen in all mango growing countries like Ghana, Kenya, Madagascar, Mozambique, South Africa, Tanzania, Uganda, Zimbabwe, Australia, China, India, Indonesia, Malaysia, Pakistan, Philippines, Sri Lanka, Taiwan, Thailand, Japan, Egypt, Iraq, Israel, Italy and in many South American countries.</t>
+          <t>Scale insects overwinter in the black cap stage; winged adult males mate with females which retain their eggs inside the body until they hatch.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Remove the infested plant parts and burn them. Spraying emulsive oil or suitable insecticides at recommended quantity will helps in reducing scale population.</t>
+          <t>Populations are often kept in check by natural enemies, including predacious beetles and some wasps - although broad-spectrum insecticides may result in outbreaks of scale by killing off populations of beneficial insects; trees can be sprayed with horticultural oils when dormant which effectively kill scales without damaging natural enemies.</t>
         </is>
       </c>
     </row>
@@ -2455,7 +4252,1460 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anthracnose</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Colletotrichum musae</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Brown spots on fruit peel; large brown to black areas; black lesions on green fruit</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wet conditions promote growth and spread of disease; spread by rainfall through plant or banana bunch</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Commercially produced fruit should be washed and dipped in fungicide prior to shipping; protect fruit from injury; remove flower parts which can harbour fungus</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Black sigatoka</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mycosphaerella fijiensis</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Red/brown flecks or spots on underside or topside of leaves; spots with dark or yellow border and grey centre; death of leaf surface; bunch not developing</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Currently the most important disease of banana; promoted by high moisture and spores spread by wind</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Export plantations may require regular fungicide applications; increase plant spacing to improve air circulation and reduce humidity; remove leaves with mature spots</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Panama disease  (Fusarium wilt)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fusarium oxysporum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yellowing of older leaves; splitting of leaf sheaths; leaves wilting and buckling; death of entire canopy</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lethal disease; spread in soil or running water</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Use disease free seed pieces; currently no effective treatment once plants are infected</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rhizome rot</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erwinia carotovora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pseudostem breaks from rhizome; rhizome will not germinate; internal tissue yellow/brown and watery</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bacteria live in soil and enter plant through wounds; disease encouraged by wet, humid conditions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Select only high quality, disease-free rhizomes fro propagation; disinfect all tools used for propagation regularly; allow seed pieces to dry before planting</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bunchy top</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ralstonia solanacearum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dark green streaks in leaves; chlorotic and upturned leaf margins; leaves brittle and erect; plant has a ‘bunchy top’; no bunches produced</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aphid transmitted; when infected symptoms appear after two more leaves are produced</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plant less susceptible varieties; destroy infected plants to prevent spread of disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Moko disease</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ralstonia solanacearum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Older leaves chlorotic, wilted and collapsing; spreads to entire canopy; collapse of pseudostem</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Can be spread root to root or by insects or human activities such as machete pruning</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantations should be regularly monitored for presence of disease; if Moko is present, male buds should be removed and all tools thoroughly disinfected; infected plants may need to be destroyed along with any neighbouring plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Banana aphid</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pentalonia nigronervosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Deformed plants with curled, shriveled leaves; if infestation is severe, galls may form on leaves; colonies of aphids usually present in crown of plant at base of pseudostem or between the outer leaf sheaths; aphid is soft-bodied and red-brown to almost black in color</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Colonies are often tended by ants; populations can build rapidly during warm weather</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chemical control does not provide protection against transmission of Banana bunchy top and direct feeding damage is not usually severe enough to warrant spraying; insecticidal soaps can help control aphid populations; plants infected with bunch top should be removed and destroyed to prevent spread</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Banana weevil</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cosmopolites sordidus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Reduced plant growth; reduced fruit production; tunnels may be visible in corm as rounded holes up to 8 mm in diameter; plants wilting and toppling over; destruction of root system; plant death; adult insect is a hard-shelled beetle which is almost black in color; adult is commonly found between leaf sheaths; larvae are   creamy-white, legless grubs with a red-brown head</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Insects are nocturnal, feeding and mating only at night;</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plant only healthy plant material, do not plant if any tunnels are visible; hot water treatment of clean trimmed suckers can be used to kill off many eggs and grubs; applications of neem powder can reduce weevil numbers; appropriate insecticides applied at time of planting can help control weevil numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Coconut scale</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aspidiotus destructor</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Small, flat, whitish scales, usually on undersides of leaves but may also attach to petioles, peduncles and fruit; plant tissue discolored and yellowing</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Coconut scale attacks a large number of hosts including coconut and other palm species, avocado, cassava, papaya, guava and sugar cane; most common in tropical regions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biological control is the best way to manage scale, with lady beetles providing the most effective protection</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bacterial leaf streak</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Xanthomonas oryzae</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Small, water-soaked streaks between leaf veins which are initially dark green and then turn translucent; streaks grow larger, coalesce and turn light brown in color; tiny beads of yellow colored bacterial exudate are common on the surface of the streaks; leaves turn brown and then gray-white in color before they die</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bacteria survive on infected seed and straw; bacteria may enter the plant through wounds; bacterial exudate can be spread in irrigation water; emergence of the disease is favored by high humidity and high temperatures; bacterial leaf streak is widespread in tropical Asia and West Africa</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Control of bacterial leaf streak is dependent on the use of resistant rice varieties and on planting of treated seed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Leaf scald</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Microdochium oryzae</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>As name suggest we will see scalded appearance on leaves. The lesion is marked with different zone from alternating light tan and dark brown from leaf tips or edges. As the leaves mature the lesion is with light brown halos. Margins and leaf tips are translucent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The symptoms may vary depends on cultivar, growth stage and plant density. The disease is severe in Latin America and West Africa.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Grow resistant varieties. Treat the seeds with suitable fungicide. Apply only recommended quantity of nitrogen fertilizer in split dose.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rice Bacterial blight</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xanthomonas oryzae pv. oryzae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Water-soaked stripes on leaf blades; yellow or white stripes on leaf blades; leaves appear grayish in color; plants wilting and rolling up; leaves turning yellow; stunted plants; plant death; youngest leaf on plant turning yellow</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>One of the most important diseases of rice; disease found in tropical and temperate regions; greatest economic impact in Asia</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bacterial blight can be effectively controlled by planting resistant rice varieties; avoid excessive nitrogen fertilization; plow stubble and straw into soil after harvest</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bakanae</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fusarium moniliforme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Seedlings are elongated, slender and pale; seedlings are stunted and chlorotic; death of seedlings; abnormal elongation of older plants which often makes them visible as they grow taller than uninfected plants in the field; sterile plants which do not produce panicles or produce empty panicles</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Disease transmitted through infected seed; disease emergence favored by high temperatures</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Treating seeds with appropriate fungicides prior to planting can be very effective at controlling the disease; less susceptible rice varieties should be grown in areas where fungicide-treated seed is not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brown spot</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cochliobolus miyabeanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Circular, brown lesions on seedling; distorted primary and/or secondary leaves on seedlings; black discoloration of roots; death of seedlings; circular or oval lesions with gray center and reddish-brown margin on older plants; death of large areas of leaves; brown or black spots on grain; reduced number of grains; reduced kernel weight</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Occurs wherever rice is grown; fungus overwinters on plant debris; disease emergence favored by water on surfaces of plant</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ensure plants are provided with correct nutrients and avoid water stress; chemical seed treatments are effective at reducing the incidence of the disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>False smut</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ustilaginoidea virens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The pathogen infect the rice plant during flowering stage and causes chalkiness of grain. The individual grains were covered with orange fungal mass in the beginning, later turns into greenish velvet color during sporulation stage and finally into charcoal black during spore maturation stage. It infect only few grains in spikelet. Recorded disease loss up to 75% in severe incidence. It also reduces market value of rice.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>It is seed born disease and may also affect seed germination.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Treat seeds with hot water (52 C) for 10 min. Roughing the infected plants from field and from harvested grains. Keep the rice field and surrounding clean. Use resistant varieties. Maintain humidity in field by alternate wetting and drying.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Narrow leaf spot (Cercospora leaf spot)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cercospora oryzae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Short, elliptical or linear brown lesions on leaves; necrosis of leaves; blotchy pattern on leaves; premature ripening of kernels</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Disease occurs in major rice growing regions in tropical and sub-tropical Asia, Africa, Australia, North America, South America and Central America</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>There are no chemical controls currently recommended for the treatment of the disease; treating seeds with hot water or appropriate fungicides prior to planting can reduce the incidence of the disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rice blast</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Magnaporthe grisea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lesions on all parts of shoot; white to green or gray diamond-shaped lesions with dark green borders; death of leaf blades; black necrotic patches on culm; rotting panicles</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Most important disease of rice worldwide; causes most damage in areas of intense cultivation; disease emergence favors high soil nitrogen content</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>If disease is not endemic to the region, blast can be controlled by planting resistant rice varieties; avoid over-fertilizing crop with nitrogen as this increases the plant's susceptibility to the disease; utilize good water management to ensure plants do not suffer from drought stress; disease can be effectively controlled by the application of appropriate systemic fungicides, where available</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sheath blight</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rhizoctonia solani</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Circular, oblong or elliptical, green to gray water-soaked spots on leaf sheaths; lesions with pale green or white center and purple-brown margin; lesions covering leaf sheaths and stems; poorly filled grains</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Occurs in all areas where rice is grown; second only importance to rice blast; most damaging in intensive rice production; spreads rapidly via irrigation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Avoid overfertilizing plants as excessive nitrogen application has been shown to increase susceptibility to the disease; applications of foliar fungicides may be required; two applications are recommended and should be timed so that the first application is made between the early internode elongation and the second application made on emerging panicles 10-14 days later</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Stem rot</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Magnaporthe salvinii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Symptoms generally begin to appear after the mid tillering stage; black lesions appear on outer leaf sheath at the water-line; lesions expand and begin to infect inner leaf sheaths and culm begins to rot; infections which reach the culm can leaf to lodging of plants, unfilled panicles and death of tillers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fungus survives in crop debris in soil after harvest; fruiting bodies are carried to the surface when fields are flooded where they then infect leaf sheaths at the water line</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bury crop residue deeply in the soil after harvest; avoid excessive nitrogen fertilization; plant less susceptible rice varieties</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Grassy stunt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nephotettix</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Stunted plants; short, narrow pale green or yellow leaves; mottled or striped pattern on newly unfolded leaves; irregular dark brown spots on leaves; few or no panicles produced;</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Transmitted by leaf hoppers; disease widespread in rice growing regions of South and Southeast Asia, southern China, southern Japan and Taiwan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Several varieties of rice resistant to the leaf hopper vectors have been developed but the insects have overcome the resistance in several countries; applications of appropriate insecticides can help to reduce populations of vectors in temperate regions</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tungro</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nephotettix</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Plants are stunted with a yellow-orange discoloration; plants may have a reduced number of tillers and rust colored spots on leaves; leaves may be mottled, striped or exhibit interveinal necrosis</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Disease is the most severely damaging virus of rice in South and Southeast Asia; virus is transmitted by leafhoppers</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rice varieties resistant to tungro virus have been developed and control the disease successfully; intense cultivation has led to the breakdown of the resistance by some virulent leafhopper strains; in Indonesia, the disease is successfully controlled by scheduling planting to obtain synchronous development and practicing crop rotation with resistant varieties</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Leafhoppers &amp; planthoppers</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nephotettix</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Plants may show no symptoms of leafhopper of planthopper damage; feeding punctures can leave the plants susceptible to bacterial or fungal infections; insects transmit many rice viruses; if infestations is severe, insects may cause plant to completely dry out; adults insects are pale green or brown winged insects with piercing-sucking mouthparts</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Leaf and planthoppers transmit many rice viruses, including grassy stunt and tungro virus</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Rotating crop for a period of one year is an effective and economical method of controlling hopper numbers; natural enemies and predators are often very successful at controlling hoppers and should be conserved by avoiding inappropriate use of insecticides which can damage their populations; planting resistant varieties is a very effective control method; chemical control with an appropriate insecticide may be necessary but should only be applied if the insects have reached an economic threshold</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mole cricket</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gryllotalpa orientalis</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The insect is very destructive because it feeds on seeds, tillers of mature plants and roots. It mainly cut the tillers at ground level and causes gap in rice field. Usually the symptoms appear in patches.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>We can see burrows of insect at sides of rice field and usually burrows will have heap of soil at entrance.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Use resistant varieties. Level the field properly and irrigate every 3-4 days after planting. Collect and kill the insects during land preparation. Avoid nurseries with raised bed to reduce cricket infestation during seedling stage. Improve biocontrol agents in field. If damage is large use food bait (commonly rice bran) mixed with insecticide and place along borders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rice bug</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Leptocorisa oratorius F. and Leptocorisa acuta Thunberg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The insect attacks during spikelet stage of rice crop. Both nymphs and adults suck the content out of grains from pre-flowering spikelets to soft dough stage. This leads to unfilled, empty and discolored grains.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>If the infestation is severe it may cause yield loss up to 30%.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Keep the field and surrounding area free from weeds which serves as alternative host for insect during non cropping season. Equal distribution of fertilizers and water in rice field to encourage even crop growth. Collect and kill insects manually by using net during early morning and late after noon. Encourage biological control agents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rice case worm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Paraponyx stagnalis Stagnalis</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Case worm larvae scraps chlorophyll from leaves. Another important symptom is the larvae cuts off leaf tips and make cylindrical tubes around them. In infected field you can see cylindrical tubes attached to plants or floating on water surface.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>The damaged leaf tissue looks like ladder.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Drain water to remove floating larvae from field. Follow proper cultivation practices like nitrogen application and spacing. Encourage biological control agents like snails, spiders, lady bird beetles, dragon flies in rice field.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Rice gall midge</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Orseolia oryzae</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gall midge maggot bore into bud or stalk of rice plant and feeds on internal content which leads to formation of tubular gall at the base of the tillers. This leads to elongation of leaf sheath which is commonly called as silver shoot or onion shoot. The leaves will be wilted, deformed and curled up.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>It is common during tillering stage of rice crop.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Grow available gall midge resistant cultivars. Follow proper cultural practices like crop rotation, ploughing the ratoon crop and other alternative hosts, planting early etc. Use light traps to attract adult flies and kill them. Conserve biocontrol agents in rice field.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rice mealy bugs</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Brevennia rehi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Both adult and nymphs feed on rice plant by sucking sap. The main symptoms are stunting and wilting of plants, yellowing and curling of leaves.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>We can see white wax covered eggs, nymphs and adults on infected plants. The insects are common in field with well drained soil.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Augment biocontrol agents (like lady bird beetles, chloropid flies, spiders, small encyrtid wasps) in rice fields.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Stem borers (Yellow stem borer, Striped stem borer, White stem borer, etc.)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Scirpophaga incertulas
+Chilo suppressalis
+Scirpophaga innotata</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Longitudinal white patches on leaf sheaths; central leaf whorl drying out and turning brown; tillers drying out without producing panicles; panicles may dry out or may produce no grain; adult insects are nocturnal moths which lay their eggs on the leaves or leaf sheaths of the rice plants; larvae are legless grubs which feed on leaf sheaths before entering the stem of the pant</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Stem borers are generally considered to be the most damaging insect pest of rice</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Stem borers are difficult to control with insecticides as once they bore inside the stem they are protected from chemical sprays; in order for chemical control to be successful, repeated applications of appropriate insecticide must be made to the foliage; granular formulations give better control than sprays; clipping seedling prior to transplanting can successfully reduce moth numbers as eggs are laid at leaf tips; harvesting plants at ground level can remove the majority of larvae from the field; plowing or flooding the remaining stubble will kill off most of the remainder of the larvae in the field</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Algal leaf spot</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cephaleuros virescens</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Orange rusty spots on both upper and lower leaf surfaces which may coalesce to form large irregularly shaped patches; scraping away the orange spots reveals a grayish discoloration of the leaf lamina underneath</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Alga</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Disease affects many fruit trees in the tropics; infection is unsightly but often harmless</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ensure that trees are properly pruned and fertilized to promote vigor; remove all weeds from around tree bases; employ a wider tree spacing to increase air circulation around the trees; badly infested trees can be treated with copper containing fungicides</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anthracnose</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Colletotrichum gleosporioides</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Small, dark spots on flowers; spots coalesce to cover entire panicle; infected flowers dropping from tree; dark flecks or spots with yellow halo on young leaves; dark, irregular, sunken lesions on fruit; fruits dropping from tree before ripe</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Disease emergence favored by wet conditions; serious disease of mango wherever it is grown</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Susceptible mango varieties should be protected with fungicide in commercial production and the timing of the applications are critical to successful control; appropriate fungicide should be applied during flowering and fruit development</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Phoma blight</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phoma glomerata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Angular or irregular brown lesions on old leaves; lesions may develop gray centers and dark margin; withering leaves; defoliation of tree</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>If pink disease is identified the recommended treatment is an application of an appropriate fungicide which can be applied by spraying or painting onto infected bark with a paintbrush</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pink disease</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erythricium salmonicolor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>White, silk-like threads at forks of branches which coalesce to form a pink crust during wet conditions; twigs and branches above this site may be killed and foliage will begin to dry out and die; orange pustules may be present on infected bark</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pink disease is a destructive disease of mango grown in the wet tropics</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>If pink disease is identified the recommended treatment is an application of an appropriate fungicide which can be applied by spraying or painting onto infected bark with a paintbrush</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Powdery mildew</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Odium mangiferae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gray-white powdery growth on leaves, flowers and/or fruit; curled, distorted shoots; fruit aborted and dropping from tree</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Found in all mango growing regions; outbreaks sporadic but can be severe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fungicides are very effective at controlling powdery mildew if applied at the first sign of the disease; chemical sprays only need be applied at flowering and fruit set</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sooty mold</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The leaves, twigs, inflorescence and fruits are covered with shiny black and sticky growth of fungal mycelium. The sooty mold won't cause any direct infection to plants, but it may effect the photosynthetic process which may cause premature aging and death of leaves. Also plants may show stunted growth.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sooty mold mainly develops on honey dew secreted by sap sucking insects like whiteflies, aphids, leaf hoppers, scale insects, mealybugs and psyllids. Also this insects are always associated with ants.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1. If plants are small wash mold with strong stream of water
+2. Spraying starch also removes sooty mold
+3. Control sap sucking insects
+4. Also keep the trees free from ants by applying a sticky compound around the trunk .</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bacterial black spot (Bacterial canker)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Angular, water-soaked spots on leaves which coalesce and turn black; black cankerous lesions on stems which crack and exude a gummy substance; irregular black lesions on fruits which extend into the flesh and exude gum; fruits dropping from plant</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bacterial black spot is found in most tropical and subtropical areas where mango is grown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Provide windbreaks for plants; prune out infected twigs; protective sprays of copper during wet weather help to protect plants from the disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fruit fly</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ceratitis cosyra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The adult female flies lay egg just under the skin of semi repine fruits. The maggots develop and feed inside the fruit, causing the flesh to turn brown and soft which emits foul smell. This damage also act as entry site for fungal and bacterial pathogens.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>The mature maggots fall out of the fruits and pupate in soil.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1. Collect the fallen fruits and destroy them.
+2. Also harvest fruits early to reduce flies damage .
+3. Use traps to monitor fruit flies. Traps can be purchased in the market or one can prepare themselves. Take plastic container with lids (one quarts yogurt container is fine). Drill holes (10 to 16 holes) that are 3/16-inch in diameter around the upper side of the container. Add 1 to 2 inch of pure apple cider vinegar (not flavored one) and a drop of unscented liquid dishwashing soap into the container. Hang the container in shade near berry trees before fruits ripening and check the traps frequently for flies. Change the vinegar every week.
+5. Spraying protein bait under leaf surface attract flies to single spot which make easier to kill them. 
+4. If infestation is severe spray suitable insecticide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mango hoppers</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Idioscopus clypealis
+Idioscopus nitidulus
+Amritodus atkinsoni</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Reduced plant vigor; sticky substance coating leaves; may be a growth of sooty mold on sticky residues; curling and drying leaves</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Insects</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Insect emergence favored by shady and humid conditions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1. Collect and burn fallen leaves and twigs.
+2. Flooding orchard with water during October kills egg present in soil. Also deep ploughing in November exposes egg to sunlight.
+3. After hatching the nymphs start climbing tree and suck sap. To avoid this band the tree trunks with polythene sheet (400 gauge, 30 cm wide) at a height of about 30 cm from the ground level and apply grease at the lower edge of band. Or you can use Funnel Type Slippery Traps.
+4. To control insects already on tree you can spray fish oil rosin soap or azadirachtin (neem products).
+5. Also soil application of the spores of the fungus, Beauveria bassiana helps in reducing mealybug population.
+6. If infestation is severe you can spray suitable insecticides</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mango mealybugs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Drosicha mangiferae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Both nymphs and female insects sucks sap form all parts mango tree (i.e., tender leaves, shoots and inflorescence). The infected inflorescences may dry up affecting the fruit set and may cause fruit drop. Severely infected plants may show wilting and thereby affect fruit setting.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>a. Mealybugs lay eggs in soil near tree trunk. 
+b. The mealybugs secrete the honey dew which causes sooty mold. 
+c. It feeds on wide range of plant species.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1. Collect and burn fallen leaves and twigs.
+2. Flooding orchard with water during October kills egg present in soil. Also deep ploughing in November exposes egg to sunlight.
+3. After hatching the nymphs start climbing tree and suck sap. To avoid this band the tree trunks with polythene sheet (400 gauge, 30 cm wide) at a height of about 30 cm from the ground level and apply grease at the lower edge of band. Or you can use Funnel Type Slippery Traps.
+4. To control insects already on tree you can spray fish oil rosin soap or azadirachtin (neem products).
+5. Also soil application of the spores of the fungus, Beauveria bassiana helps in reducing mealybug population.
+6. If infestation is severe you can spray suitable insecticides</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mango tree borer</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Batocera rufomaculata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mango tree borer damage may first be noticed as circular holes in the bark. This damage indicates that the tree has been attacked by borers which have chewed exit holes in the wood. Mango tree borers feed on the bark of twigs and chew green growing tips; when feeding damage is severes, branches may be killed and the main stem of the tree may collapse; insect frass (feces) collects in cracks in the bark and around the base of the tree; holes become visible in the bark.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mango tree borers are a pest of mango trees in many parts of Asia, Africa, Central America, the Caribbean and the Solomon Islands; female tree borers lay their eggs in an incision made in damaged mango bark; larvae bore through the wood as they feed and eventually pupate within the tree; adult insects emerge from an exit hole that they cut in the wood. adult insects are 25–55 mm long with distinctive long antennae which extend the length of the body</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Application of appropriate insecticide to the trunk and branches of the tree when adult insects are present acts to kill any eggs and larvae that are present; insecticide applied to growing twigs and green shoots may deter adult feeding; probing injury sites with a knife or piece of wire can help to destroy larvae and eggs</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>White Mango Scale</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aulacaspis tubercularis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Scale insects suck the sap from leaves, branches and fruits which causes defoliation, drying up of young twigs, poor blossoming and also affect the quality of fruits by causing conspicuous pink blemishes. Infestation of young plants results in retard growth. In case of severe infestation the fruits may fall prematurely, whereas the mature fruits are reduced in size.
+Another major problem with scale insect is the development of sooty mold due to honeydew secretion.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>The insect have wide host range and can be seen in all mango growing countries like Ghana, Kenya, Madagascar, Mozambique, South Africa, Tanzania, Uganda, Zimbabwe, Australia, China, India, Indonesia, Malaysia, Pakistan, Philippines, Sri Lanka, Taiwan, Thailand, Japan, Egypt, Iraq, Israel, Italy and in many South American countries.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Remove the infested plant parts and burn them. Spraying emulsive oil or suitable insecticides at recommended quantity will helps in reducing scale population.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2734,1038 +5984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Disease Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Botanical Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Symptoms</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cause</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anthracnose</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Colletotrichum graminicola</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Anthracnose symptoms vary widely depending on numerous factors such as genotype, age of plant and environmental conditions.
-- Small oval or elongated water-soaked spots which enlarge up to 15 mm long appear on leaves
-- Lesions develop a tan center and red-brown or orange border
-- Lesions may coalesce to form large necrotic(dead) patches
-- Severely infected leaves on susceptible hybrids may wither and die
-- Fungal fruiting bodies develop on dead tissues and may produce pink or orange spore masses
-- Top dieback and stalk rot</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Fungus survives the winter on crop debris. Emergence of disease is favored by high temperatures and extended periods of wet and cloudy weather - seedlings and mature plants are most susceptible to the disease.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Plant hybrids resistant to anthracnose; rotating crops and plowing crop debris into soil may help reduce incidence of early season infections.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cercospora leaf spot (Gray leaf spot)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cercospora zeae-maydis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Small necrotic spots with chlorotic halos on leaves which expand to rectangular lesions 1-6 cm in length and 2-4 mm wide; as the lesions mature they turn tan in color and finally gray; lesions have sharp, parallel edges and are opaque; disease can develop quickly causing complete blighting of leaves and plant death.
-1. Brown Spots with yellow rings throughout the leaf during the growing period of the Cassava
-2. Lesions that are 0.15-0.2 cm in diameter
-3. Serious cases can lead to holes throughout the lesions on the leaf</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Disease emergence is favored in areas where a corn crop is followed by more corn with no rotastion; severity and incidence of disease is likely die to continuous corn culture with minimum tillage and the use of susceptible hybrids in in the midwestern corn belt of the USA; prolonged periods of foggy or cloudy weather can cause severe Cercopora epidemics.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plant corn hybrids with resistance to the disease; crop rotation and plowing debris into soil may reduce levels of inoculum in the soil but may not provide control in areas where the disease is prevalent; foliar fungicides may be economically viable for some high yeilding susceptible hybrids.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Charcoal rot</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Symptoms are usually first apparent at the tasseling stage; plant stalks become shredded and pith is completely rotted with stringy strands of vascular tissue left intact; small, black fungal fruiting bodies are visible in the vascular strands and give the tissue a gray coloration; fungus grows into internodes of the stalk causing the plant to ripen early and causing the stalk to weaken; plant may break.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Emergence of the disease is favored by warm soils with a low moisture content; fungus overwinters in the soil and can also survive on other host plants which include sorghum and soybean.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>There are currently no available fungicides to treat the disease; avoid stressing plants by practicing good water management; rotating crops with small grains may help reduce disease incidence.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Common rust</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Puccinia sorghi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Oval or elongated cinnamon brown pustules on upper and lower surfaces of leaves; pustules rupture and release powdery red spores; pustules turn dark brown-black as they mature and release dark brown powdery spores; if infection is severe, pustules may appear on tassels and ears and leaves may begin to yellow; in partially resistant corn hybrids, symptoms appear as chlorotic or necrotic flecks on the leaves which release little or no spore.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Disease is spread by wind-borne spores; some of the most popularly grown sweet corn varieties have little or no resistance to the disease.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>The most effective method of controlling the disease is to plant resistant hybrids; application of appropriate fungicides may provide some degree on control and reduce disease severity; fungicides are most effective when the amount of secondary inoculum is still low, generally when plants only have a few rust pustules per leaf.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Common smut (Boil smut, Blister smut)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ustilago zeae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tumor-like galls on plant tissues which are initially green-white or silvery white in color; interior of galls darken and turn into masses of powdery dark brown or black spores (with the exception of galls on leaves which remain greenish in color); galls may reach up to 15 cm in diameter and are common on ears, tassels, shoots or midrib of leaves; galls on leaves remain small and do not burst open.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fungus overwinters on crop debris or in the soil and can survive for several years; fungus usually enters the plant through wounds; application of nitrogen fertilizer increases incidence of disease, while application of phosphorous fertilizer decreases infection.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Although many practices may be recommended for the control of common smut, the only method that is completely effective is to grow resistant corn hybrids.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Downy Mildew disease</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Peronosclerospora sorghi (Sorghum downy mildew) 
-P. maydis (Java downy mildew)
-P. philippinensis (Philippine downy mildew)
-P. sacchari (Sugarcane downy mildew)
-Scleropthora rayssiae var. zeae (Brown stripe downy mildew)
-Sclerospora graminicola (Graminicola downy mildew or green ear)
-Sclerophthora macrospora (crazy top)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Symptoms of all maize downy mildew pathogens are similar although may vary depends on cultivar, age and climate. The disease appear as early from two weeks after sowing resulting in chlorosis and stunting. In older plants the leaves shows mottling, chlorotic streaking and lesions and white striped leaves. Usually the leaves are narrower and more erect when compare to healthy plants and are covered with a white, downy growth on both surfaces.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>The disease is both air and seed born. The pathogen have several alternative hosts.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Grow available resistant varieties and hybrids. Follow crop rotation with non host crops. Use suitable systemic fungicide for both seed treatment and foliar spray. Keep the fields free from weeds. Drying seeds before sowing reduces the disease incidence.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Giberrella stalk and ear rot</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Giberella zeae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Plants wilting and leaves changing color from light to dull green; lower stalk turns straw yellow; internal stalk tissue breaks down; interior of stalk has a red discoloration; black fungal fruiting bodies may be visible on the stalk, often at internodes, and can be easily scraped off; if fungal infection affects the ears, it produces a red mold at the tips of the ear which spreads down; early infection may result in the ear being covered in pink mycelium which causes the corn husk to adhere to the ear.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Fungus can enter through wounds to stalk or ear; ear rot is caused by the fungus infecting silks and moving down through the ear; fungus survives on corn debris in soil and on debris of other host plants such as wheat.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Stressed plants are more susceptible to Gibberella - providing adequate fertilization and irrigation can help reduce incidence of disease; control insects, especially stem and ear borers; hybrids differ in their susceptibility to the disease and further information is required in order to develop specific control measures.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Northern Leaf Blight</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Exserohilum turcicum</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>In the beginning we will notice elliptical gray-green lesions on leaves. As the disease process this lesions become pale gray to tan color. Later stage the lesions looks dirty due to dark gray spores particularly under lower leaf surface. The disease can be easily identified in the field due to its long, narrow lesions which are unrestricted by veins.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>The disease mainly spread through rain splash and wind.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Follow proper tillage to reduce fungus inoculum from crop debris. Follow crop rotation with non host crop. Grow available resistant varieties. In severe case of disease incidence apply suitable fungicide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Southern corn leaf blight</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Bipolaris maydis</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Foliar symptoms vary with hybrid and different fungal isolate; lesions on leaves may be tan and elongated and run between leaf veins; lesions may have a buff or brown colored margin; another race of the fungus causes tan, spindle shaped or elliptical lesions with a water-soaked margin that turns into a yellow halo.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Fungus overwinters in corn debris in soil; disease occurs worldwide but is emergence favors areas with a warm, damp climate.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>The most effective method of controlling the disease is to plant resistant hybrids; cultural control methods include plowing crop debris into soil after harvest and rotating crops.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bacterial leaf blight/stripe</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pseudomonas rubrilineans, syn. Pseudomonas avenae,
- Acidvorax avenae subsp. avenae</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Water-soaked linear lesions on leaves as they emerge; lesions turn brown and may subsequently turn gray or white; lesions may have a red border; after the leaves are mature, lesions do not tend to extend any further; no new lesions tend to appear after tasseling; if corn variety is susceptible, mature leaves may shred after maturity.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Bacteria can also cause disease in oats, barley, wheat, some millets and sorghum.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Resistant hybrids should be planted in areas where the disease is prevalent; plowing crop debris into soil and rotating crop may not be effective at controlling the disease due to its extensive host range.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bacterial Leaf Streak disease</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Xanthomonas vasicola pv. vasculorum
- (syn Xanthomonas campestris pv. zeae)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>The infected leaves initially shows narrow stripes between the veins. The initial symptoms are generally confused with gray leaf spot disease. But the lesions from bacteria appear brown, orange, and/or yellow when you infected leaves are back-lit. Also in Bacterial Leaf Streak disease the lesions show slightly wavy edges when compared to the smooth, linear lesion margins of gray leaf spot.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>The bacteria causes gumming disease on sugarcane in several part of the world. First reported on corn in South Africa. Currently this disease is reported in Nebraska (Aug. 26, 2016), Colorado, Illinois, Iowa, and Kansas on corn.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Use healthy and disease free seeds. Remove the infected plant debris and burn them. Follow crop rotation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bacterial stalk rot/soft rot</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Erwinia chrysanthemi
-Erwinia carotovora</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Plants suddenly beginning to lodge (bend to lie along the ground) midway through season; one or more internodes above soil line turning brown, water-soaked, soft and slimy; tissue has foul odor and mushy appearance;</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Disease is most commonly found in plantations which have overhead irrigation systems or in areas with high rainfall; disease emergence is favored by high temperatures and high humidity.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Plow all crop debris into soil in Fall; plant corn in well-draining soil to prevent waterlogged plants.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Goss's bacterial blight</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Clavibacter michiganensis</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Gray or yellow stripes with irregular margins on leaf surfaces; stripes follow leaf veins and contain characteristic dark green to black water-soaked spots; if infection occurs early then plant may become wilted or withered; it is common to find a crystalline residue on leaves caused by dried bacterial exudate.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Bacteria</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Disease overwinters in diseased crop debris on, or close to, the soil surface; temperatures below 12°C (53.6°F) and above 40°C (104°F) bacterium grows more slowly and may even be killed off.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Plant resistant sweetcorn hybrids; rotate crop; plow crop debris into soil immediately after harvest.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Holcus spot</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pseudomonas syringae</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Circular or elliptical spots 2-10 mm across near the tips of lower leaves which are dark green and water soaked initially but become cream to tan before turning dry and brown; lesions may have red-brown margins; large lesions may have a yellow halo.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Disease can occur anywhere where corn is grown but is not usually very damaging.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Disease is usually not severe but if it does become a problem crops should be rotated and any debris should be plowed into the soil after harvest.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Stewart’s wilt</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Erwinia stewartii
-syn Pantoea stewartii</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>The main symptoms are appearance of water soaked lesions initially. As the disease progress the lesions become long and turn pale yellow with irregular margins running in the length. The pathogen may infect the stem and causes stunting, wilting and death of plant.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>The pathogen is mainly transmitted by maize flea beetles and to lesser extent by infected seeds.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Grow available resistant varieties. Use certified healthy seeds. Remove the crop debris and burn them. Use suitable insecticide to control flea beetle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Fall armyworm - IPM</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Many commercial corn hybrids are highly tolerant of the disease and no control is needed; control aphid populations on plants and remove any Johnson grass growing in the vicinity as it can act as a reservoir for the virus.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Fall armyworm Open Access Knowledge</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Many commercial corn hybrids are highly tolerant of the disease and no control is needed; control aphid populations on plants and remove any Johnson grass growing in the vicinity as it can act as a reservoir for the virus.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Fall armyworm Pesticides</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Many commercial corn hybrids are highly tolerant of the disease and no control is needed; control aphid populations on plants and remove any Johnson grass growing in the vicinity as it can act as a reservoir for the virus.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Fall armyworm Remote sensing</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://plantvillage.psu.edu/diseases/fall-armyworm_remote-sensing</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Many commercial corn hybrids are highly tolerant of the disease and no control is needed; control aphid populations on plants and remove any Johnson grass growing in the vicinity as it can act as a reservoir for the virus.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Maize dwarf mosaic</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Chlorotic spots and streaks on leaves which develop into a mottled or mosaic pattern; susceptible plants may be stunted; ear formation and development cease; mosaic and mottling with no red discoloration are characteristic symptoms of the disease.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Virus is transmitted by more than 15 different species of aphid and is passed to the plant from the insect in seconds to minutes of feeding; sorghum is also a major host of the virus.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Many commercial corn hybrids are highly tolerant of the disease and no control is needed; control aphid populations on plants and remove any Johnson grass growing in the vicinity as it can act as a reservoir for the virus.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Maize Lethal Necrosis Disease (MLND) or Corn Lethal Necrosis (CLN)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>The disease occurs at all stages of crop. The main symptoms includes appearance of chlorotic mottling on leaves which starts from base and extends upwards. Also the leaves shows necrosis at margins which later extends to mid rib and results in drying of entire leaf. The necrosis of young leaves in the whorl causes dead heart symptom. Other symptoms are premature plant death, shortened male inflorescences with few spikes, and/or shortened, malformed, partially filled ears.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>The virus mainly spread by vectors (maize thrips, aphids, rootworms and leaf beetles) and infected seeds. The first report of this disease in Africa continent was in Kenya (2011). And later the disease spreads to other countries like Tanzania, Uganda and South Sudan.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Use healthy, disease free certified seeds. Keep the fields free from weeds. Remove the infected plants and burn them. Control vectors by treating seed and/ foliar spray with suitable insecticide. Follow crop rotation with non cereals at least for two seasons. Plant maize only in main rainy season instead of short rainy season. Grow available resistant varieties.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Pythium root rot</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Above-ground, plants may be yellow and stunted; roots have obvious lesions and roots are discolored; root cortex will come away when pulled gently, exposing the white stele; can also cause damping-off of seedlings.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Fungus overwinters in soil and crop debris; disease emergence is favored by high soil moisture and low temperatures leading to low soil oxygen levels.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Control of the disease relies on improving soil drainage or planting corn in areas where the soil is well-draining; systemic fungicides can be used to treat seed prior to planting to protect seedlings from disease.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Slugs</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Rhopalosiphum maidis
-Myzus persicae</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Irregularly shaped holes in leaves and stems; leaves may be shredded; slime trails present on rocks, walkways, soil and plant foliage; several slug species are common garden and field pests; slugs are dark gray to black in color and can range in size from 2.5 to 10 cm (1-4 in).</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mollusc</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Slugs prefer moist, shaded habitats and will shelter in weeds or organic trash; adults may deposit eggs in the soil throughout the season; damage to plants can be extensive.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Practice good garden sanitation by removing garden trash, weeds and plant debris to promote good air circulation and reduce moist habitat for slugs and snails; handpick slugs at night to decrease population; spread wood ashes or eggshells around plants; attract molluscs by leaving out organic matter such as lettuce or grapefruit skins, destroy any found feeding on lure; sink shallow dishes filled with beer into the soil to attract and drown the molluscs; chemical controls include ferrous phosphate for organic gardens and metaldehyde (e.g. Buggeta) and carbaryl (e.g Sevin bait) for non-organic growers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Aphids (Corn leaf aphid, Peach Aphid)</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Rhopalosiphum maidis
-Myzus persicae</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Heavy infestations can result in curled leaves and stunted plants; honeydew secretions promote growth of sooty mold; corn leaf aphids are blue-green in color, peach aphids are green-yellow in color; aphids may transmit viruses when feeding.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Grassy weeds also serve as hosts for corn-leaf aphids; peach aphids have a wide host range.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>It is rare for aphids to reach levels that are damaging to the plant and no control is generally warranted as insecticide sprays will not prevent transmission of viruses.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Corn earworm</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Helicoverpa zea</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Feeding damage to leaves, tassel and leaf whorls; preferred feeding site is the ear and insect produces extensive excrement at the tip of the ear; younger larvae feed on silks, severing them from the plant; young caterpillars are cream-white in color with a black head and black hairs; older larvae may be yellow-green to almost black in color with fine white lines along their body and black spots at the base of hairs; eggs are laid singly on both upper and lower leaf surfaces and are initially creamy white but develop a brown-red ring after 24 hours and darken prior to hatching.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Adult insect is a pale green to tan, medium sized moth; can be a very damaging pests ofcorn; insect overwinters as pupae in the soil.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Corn earworms are most problematic on sweet corn varieties and treatment should be applied at egg hatch; monitor plants for eggs and young larvae and also natural enemies that could be damaged by chemicals; Bacillus thuringiensis or Entrust SC may be applied to control insects on organically grown plants; appropriate chemical treatment may be required for control in commercial plantations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Cutworms (Black cutworm, Variegated cutworm)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Agrotis ipsilon
-Peridroma saucia</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Stems of young transplants or seedlings may be severed at soil line; if infection occurs later, irregular holes are eaten into the surface of fruits; larvae causing the damage are usually active at night and hide during the day in the soil at the base of the plants or in plant debris of toppled plant; larvae are 2.5–5.0 cm (1–2 in) in length; larvae may exhibit a variety of patterns and coloration but will usually curl up into a C-shape when disturbed.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cutworms have a wide host range and attack vegetables including asparagus, bean, cabbage and other crucifers, carrot, celery, corn, lettuce, pea, pepper, potato and tomato.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Remove all plant residue from soil after harvest or at least two weeks before planting, this is especially important if the previous crop was another host such as alfalfa, beans or a leguminous cover crop; plastic or foil collars fitted around plant stems to cover the bottom 3 inches above the soil line and extending a couple of inches into the soil can prevent larvae severing plants; hand-pick larvae after dark; spread diatomaceous earth around the base of the plants (this creates a sharp barrier that will cut the insects if they try and crawl over it); apply appropriate insecticides to infested areas of garden or field if not growing organically.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Fall armyworm</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Bacillus thuringiensis</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Singular, or closely grouped circular to irregularly shaped holes in foliage; heavy feeding by young larvae leads to skeletonized leaves; shallow, dry wounds on fruit; egg clusters of 50-150 eggs may be present on the leaves; egg clusters are covered in a whitish scale which gives the cluster a cottony or fuzzy appearance; young larvae are pale green to yellow in color while older larvae are generally darker green with a dark and light line running along the side of their body and a pink or yellow underside.
-1. Leaf damage is usually characterized by ragged feeding, and moist sawdust-like frass near the funnels and upper leaves of the plant.
-2. Leaf damage is usually scattered in rows across the leaf
-3. Younger larvae usually eat tissue from one side, leaving the other side in tact. This is what creates windows in the leaf
-4. Deep feeding may may destroy maize tassels.
-5. Caterpillars enter through the side of the ear and feed on developing kernels</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Insect can go through 3–5 generations a year.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Organic methods of controlling the armyworm include biological control by natural enemies which parasitize the larvae and the application of Bacillus thuringiensis; there are chemicals available for commercial control but many that are available for the home garden do not provide adequate control of the larvae.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Flea beetles</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Chaetocnema pulicaria
-Altica spp.</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Small holes or pits in leaves that give the foliage a characteristic “shothole” appearance; young plants and seedlings are particularly susceptible; plant growth may be reduced; if damage is severe the plant may be killed; the pest responsible for the damage is a small (1.5–3.0 mm) dark colored beetle which jumps when disturbed; the beetles are often shiny in appearance.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Flea beetles may overwinter on nearby weed species, in plant debris or in the soil; insects may go through a second or third generation in one year.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>In areas where flea beetles are a problem, floating row covers may have to be used prior to the emergence of the beetles to provide a physical barrier to protect young plants; plant seeds early to allow establishment before the beetles become a problem - mature plants are less susceptible to damage; trap crops may provide a measure of control - cruciferous plants are best; application of a thick layer of mulch may help prevent beetles reaching surface; application on diamotecoeus earth or oils such as neem oil are effective control methods for organic growers; application of insecticides containing carbaryl, spinosad, bifenthrin and permethrin can provide adequate control of beetles for up to a week but will need reapplied.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Thrips (Various spp.)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Meloidogyne incognita
-M. arenaria
-M. javanica</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>If population is high leaves and may be distorted and curl upwards; edges of leaves may dry up and are speckled with black feces; insects are small (1.5 mm) and slender and best viewed using a hand lens; adult thrips are pale yellow to light brown and the nymphs are smaller and lighter in color.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>May be found on corn at any time during the growing season.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Avoid planting next to onions, garlic where very large numbers of thrips can build up; use reflective mulches early in growing season to deter thrips; apply appropriate insecticide if thrips become problematic; young plants will recover from damage and treatment is not often necessary as the thrips are beneficial for controlling mites.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Root knot nematode</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Meloidogyne incognita
-M. arenaria
-M. javanica</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Below ground we can see galls on the roots due to female nematode feeding. Above ground the plants are stunted, yellow and patchy in growth. Severely infested plant may die before harvest.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Nematode</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>The galls are formed by female nematode feeding resulting in formation of giant cells.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Deep summer ploughing helps in reducing nematode population. Follow crop rotation with nematode antagonistic plants. Grow resistant varieties. In severely infected field follow soil fumigation with suitable nematicide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Spider mites (Various spp.)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>italic</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Leaves stippled with yellow; leaves may appear bronzed; webbing on underside of leaves; small kernel size; mites may be visible as tiny moving dots on the webs or underside of leaves, best viewed using a hand lens; usually not spotted until there are visible symptoms on the plant; leaves turn yellow and may drop from plant;</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Arachnid</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Spider mites thrive in dusty conditions; water-stressed plants are more susceptible to attack.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>In the home garden, spraying plants with a strong jet of water can help reduce buildup of spider mite populations; if mites become problematic apply insecticidal soap to plants; certain chemical insecticides may actually increase mite populations by killing off natural enemies and promoting mite reproduction.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3999,8 +6218,8 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1. Remove the infected plant and burn them to avoid further spread of disease
-2. Use yellow sticky traps to monitor whiteflies population
+          <t>1. Remove the infected plant and burn them to avoid further spread of disease
+2. Use yellow sticky traps to monitor whiteflies population
 3. If the whiteflies infestation is more spray suitable insecticides.</t>
         </is>
       </c>
@@ -4302,7 +6521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4545,7 +6764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5139,4 +7358,2059 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Almond brownline and decline</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Peach yellow leafroll mycoplasma</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Stunted tree growth; drooping/wilting of leaves; brown necrotic areas under bark</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Phytoplasma</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Most common on young trees; grow trees from pathogen free stock</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Stunted trees should be removed and replaced; plant only certified pathogen free trees</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Almond kernel shrivel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Peach yellow leafroll phytoplasma</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Late blooming; new growth stunted; paler, smaller leaves; kernels of nuts shriveled at harvest</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Phytoplasma</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Most common where peach rootstock has been used for grafting; remove infected trees</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Remove diseased trees; plant only certified trees</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Almond leaf scorch; golden death</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xylella fastidiosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chlorotic leaf margins; necrosis of leaf margins beginning toward tip of leaf and spreading to base; patches of necrotic tissue with chlorotic margin</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>More of tree will be affected each year; bacterium can infect rye, blackberry and nettle and if these plants are nearby they may act as reservoir; transmitted by leafhoppers and spittle bugs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>If discovered early (while disease affects only one branch) disease can be removed by pruning primary scaffold 5 to 10 ft below symptoms; older infections may require the tree to be removed and replaced</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Crown gall</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrobacterium tumefaciens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Galls of various sizes on roots and root crown below the soil line; galls may occasionally grow on the trunk; galls are initially light colored bulges which grow larger and darken; galls may be soft and spongy or hard; if galling is severe and girdles the trunk then young trees are weakened due to constricted vascular tissue; trees may be stunted and rarely die</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The bacterium enters host plants through wounds and causes plant cells to proliferate and cells to be undifferentiated, leading to the formation of a gall</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Only plant disease-free nursery stock; plant trees in well-draining soils; avoid wounding the plants as much as possible; fresh wounds can be treated with a biocontrol agent (Agrobacterium tumefaciens K84), if available, to prevent the bacterium colonizing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Alternaria leaf spot</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alternaria alternata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Light brown lesions on leaves which expand to form circular lesions on leaf blade or semi-circular lesions on margin; leaves may develop light yellow necrosis which dries and turns tan in center of leaves; infected leaves dropping from tree; fruit does not drop from tree</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Disease emergence favors warm weather</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Late spring treatment with appropriate fungicide if Alternaria symptoms are present</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Anthracnose</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colletotrichum acutatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Blighting of blossom; dieback of limbs; death of foliage with leaves remaining attached; nuts with orange lesions</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>All cultivars susceptible; occurs more often in warm, wet conditions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fungicide treatment and cultural practices required to control disease. Orchards with a history of anthracnose infections should be sprayed at 5-10% bloom and applications should be repeated every 10 to 14 days; dead infected branches should be pruned; low angle nozzles should be used in orchards with spray irrigation to prevent wetting of leaves</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brown Rot Blossom Blight</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Monolinia laxa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Blighted blossoms; stigma and anther of flowers turning brown and necrotic; blossom collapsing and turning brown; light brown powdery fungal masses may be visible on infected flowers; gummy exudate at base of flowers; cankers forming on twigs associated with blossoms</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Disease emergence favors frequent rainfall during bloom</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fungicide application at 5-10% bloom and full bloom to protect flowers; one application at full bloom usually sufficient if there is no rainfall; two or three applications should be made if bloom is accompanied by rainfall</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hull rot</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rhizopus stolonifer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tan lesions on hulls which enlarge and cause fruit to shrivel; dark gray spore masses visible between hull and shell; leaves in proximity to infected fruit may wither and curl; leaf death occurs on side of shoot closest to infected fruit</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hulls of fruit are susceptible to hull rot until they are dry</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>of irrigation should be practiced. Reduce irrigation at hull split; demethylation inhibitor and quinone outside inhibitor fungicide may be applied in combination with irrigation management</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Shot hole</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wilsonomyces carpophilus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Circular purplish spots on foliage which enlarge and turn chlorotic then tan; drying of lesions causes missle of lesion to drop out of leaf causing small holes to develop</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Spores transmitted in water; disease more common in wet conditions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>If fungal fruiting structures are present in Fall (visible under a hand lens as small black spots in the center of lesions) then a fall treatment with fungicide is required; fungicide should be applied before wet periods to protect tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Verticillium wilt (Blackheart)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Verticillium dahliae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Leaves on one side of tree turning yellow; wilting early in season</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fungus overwinters on soil, recurring each year; problematic if orchard is interplanted with other susceptible plants e.g. cotton, tomato, melon</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Orchards should not be intercropped with susceptible plants e.g. cotton, tomatoes or melons; solarization or fumigation of soil prior to planting may be used to kill fungi in soil</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pavement ant (Southern fire ant)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tetramorium caespitum
+Solenopsis xyloni, S. molesta</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hollowed out nuts on ground</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Insects</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Prevalent in orchards using drip or spray irrigation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Monitor orchard for ants in April and May; apply ant baits before harvest to manage high ant populations; remove nuts from orchard floor as soon as possible</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anthracnose</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Colletotrichum musae</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Brown spots on fruit peel; large brown to black areas; black lesions on green fruit.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Wet conditions promote growth and spread of disease; spread by rainfall through plant or banana bunch.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Commercially produced fruit should be washed and dipped in fungicide prior to shipping; protect fruit from injury; remove flower parts which can harbour fungus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Banana speckle</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mycosphaerella fijiensis</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Export plantations may require regular fungicide applications; increase plant spacing to improve air circulation and reduce humidity; remove leaves with mature spots</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Black sigatoka (Black leaf streak)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mycosphaerella fijiensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Red/brown flecks or spots on underside or topside of leaves; spots with dark or yellow border and grey centre; death of leaf surface; bunch not developing</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Currently the most important disease of banana; promoted by high moisture and spores spread by wind</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Export plantations may require regular fungicide applications; increase plant spacing to improve air circulation and reduce humidity; remove leaves with mature spots</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cigar end rot</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verticillium fructigena
+Trachysphaera theobromae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tips of fingers initially begin to darken and wrinkle; tips of fingers develop a dark rot; if Verticillium fungi are present then the rot is typically dry and the tips become mummified, if Trachysphaera is present, the rotted are become covered with white spores which gives the fingers the ashen appearance characteristic of cigar end rot.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Disease is of economic importance in Central and West Africa; it also occurs in India, Iran, South Africa, South America, the Canaries and the West Indies.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Infected flowers should be removed from the plant; bunches should be bagged using perforated polyethylene; chemical control may be necessary in the case of severe infestations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cordana leaf spot</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cordana musae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Initially the lower leaves shows oval shaped yellow or pale brown spots near the leaf margins. As the disease progress, the central dead brown area of spots is covered by concentric zonation which is surrounded by a yellow halo. The individual spots may join together to form large necrotic area.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The disease is favored by hot and humid condition. The pathogen mainly spreads by water splash and wind.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Remove all the infected leaves and burn them. If the disease is severe spray copper based fungicides.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Panama disease  (Fusarium wilt)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fusarium oxysporum f. sp. cubense</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The fungus infect roots and grow inside xylem vessels which in turn blocks flow of nutrients and water to plant. We can see reddish brown discoloration of vascular tissue by cut opening rhizomes and pseudostem. 
+The above ground symptoms are yellowing of older leaves; splitting of leaf sheaths; leaves wilting and buckling; death of entire canopy.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>It is very lethal disease which mainly spreads through soil, running water and infected rhizome. It is one of the first disease of bananas to have spread globally.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Use disease free planting materials; currently no effective treatment once plants are infected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rhizome rot</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erwinia carotovora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pseudostem breaks from rhizome; rhizome will not germinate; internal tissue yellow/brown and watery</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bacteria live in soil and enter plant through wounds; disease encouraged by wet, humid conditions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Select only high quality, disease-free rhizomes fro propagation; disinfect all tools used for propagation regularly; allow seed pieces to dry before planting</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yellow sigatoka</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mycosphaerella musae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pale green flecks on leaves which enlarge to chlorotic streaks; streaks enlarge and turn brown with chlorotic halo; mature lesions are gray with a dark brown border; lesions coalesce and kill large areas of leaves</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Spores spread by wind, rain and irrigation water;</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Export plantations may require regular fungicide applications; increase plant spacing to improve air circulation and reduce humidity; remove leaves with mature spots</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Bad Image</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Banana BBTV Leaf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>banana_blackSigatoka_leaf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Banana Black Sigatoka Leaf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>banana_BXW_bunch</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Banana BXW Fruit Cut</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>banana_BXW_fruitCutCrosswise</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>banana_BXW_fruitUncut</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Banana BXW Leaf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>banana_BXW_stemCutCrosswise</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Banana Fruit Cut BXW</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Banana Leaf Black Sigatoka</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Banana Leaf BXW</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Banana Sigatoka</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Banana Sigatoka Leaf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fungal</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>banana_unknown_leaf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>banana_yellowSigatoka_leaf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Banana Yellow Sigatoka Leaf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Bunchy Top Disease</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BXW</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dried Old</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fusarium (Panama Disease)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fusarium (TR4)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Healthy</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Nutrient Deficiency</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Weevil Damage</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Banana bacterial wilt (BBW) / Banana xanthomonas wilt (BXW)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The infected plant shows yellow leaves which later turn brown and die. If infection occurs at later stage of crop, male buds exhibit dry rot and blackening . Premature uneven ripening of fruits in the bunch. The infected fruit show rusty brown discoloration in pulp.
+Infected parts ooze yellow bacteria after cut.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>In Uganda locally it is called as 'kiwotoka'. The disease is mainly transmitted by insects, farm equipments, animals and infected rhizomes. BBW was first recorded in Ethiopia (1968) mainly on banana and enset. Later the disease spread to Uganda (2001) and eventually to other eastern African countries.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Moko disease</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ralstonia solanacearum</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Older leaves chlorotic, wilted and collapsing; spreads to entire canopy; collapse of pseudostem</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Can be spread root to root or by insects or human activities such as machete pruning.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Banana plantations should be regularly monitored for presence of disease; if Moko is present, male buds should be removed and all tools thoroughly disinfected; infected plants may need to be destroyed along with any neighbouring plants</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Banana mosaic</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pentalonia nigronervosa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Chlorotic mottling or stripes on foliage; distorted fruit which may have chlorotic streaks or mottling; distorted leaves; leaf necrosis</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Transmitted by aphids; may be transmitted through infected seed</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Remove susceptible host plants from around plantation; plant virus-free material</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Bunchy top</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pentalonia nigronervosa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Dark green streaks in leaves; chlorotic and upturned leaf margins; leaves brittle and erect; plant has a ‘bunchy top; no bunches produced</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Virus</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Aphid transmitted; when infected symptoms appear after two more leaves are produced</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Plant less susceptible varieties; destroy infected plants to prevent spread of disease</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Banana aphid</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pentalonia nigronervosa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Deformed plants with curled, shriveled leaves; if infestation is severe, galls may form on leaves; colonies of aphids usually present in crown of plant at base of pseudostem or between the outer leaf sheaths; aphid is soft-bodied and red-brown to almost black in color.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Colonies are often tended by ants; populations can build rapidly during warm weather.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Chemical control does not provide protection against transmission of Banana bunchy top and direct feeding damage is not usually severe enough to warrant spraying; insecticidal soaps can help control aphid populations; plants infected with bunch top should be removed and destroyed to prevent spread.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Banana skipper</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Erionota thrax</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Usually larvae feed on leaves. Typically the feeding involves incising and rolling up of leaves.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>The insect also attacks coconut and other palm species. The pest is common in Southeast Asia and Pacific islands.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Encourage and release natural enemies to check the population of skippers. Hand pick the larvae and kill them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Banana weevil</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cosmopolites sordidus</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Reduced plant growth; reduced fruit production; tunnels may be visible in corm as rounded holes up to 8 mm in diameter; plants wilting and toppling over; destruction of root system; plant death; adult insect is a hard-shelled beetle which is almost black in color; adult is commonly found between leaf sheaths; larvae are   creamy-white, legless grubs with a red-brown head</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Insects are nocturnal, feeding and mating only at night</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Plant only healthy plant material, do not plant if any tunnels are visible; hot water treatment of clean trimmed suckers can be used to kill off many eggs and grubs; applications of neem powder can reduce weevil numbers; appropriate insecticides applied at time of planting can help control weevil numbers</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Coconut scale</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Aspidiotus destructor</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Small, flat, whitish scales, usually on undersides of leaves but may also attach to petioles, peduncles and fruit; plant tissue discolored and yellowing.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Coconut scale attacks a large number of hosts including coconut and other palm species, avocado, cassava, papaya, guava and sugar cane; most common in tropical regions.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Biological control is the best way to manage scale, with lady beetles providing the most effective protection.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disease Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Botanical Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Symptoms</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alternaria leaf blight</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alternaria dauci</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Green-brown water-soaked lesions on leaves which enlarge and turn dark brown or black; lesions may coalesce causing leaves to yellow and die; lesions may be present on petioles</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Disease emergence favored by wet foliage and warm weather; rain and fog enhance the development of the disease; fungus survives in soil on crop debris but is killed when the debris decomposes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Disease can be difficult to control in wet, warm conditions; apply appropriate fungicides when first symptoms appear or as a protective measure in humid areas; treat seeds with fungicide or hot water prior to planting; apply gibberellic acid to carrot foliage to promote upright growth and promote air circulation through canopy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Black rot</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alternaria radicina</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Damping-off of seedlings; root and crown necrosis; blighted foliage; lower portion of petioles black and necrotic; black ring around petiole attachment black, sunken lesions on taproot</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Disease is spread through infected seed and can survive in soil for up to 8 years</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Black rot is difficult to control and can survive in the soil for long periods of time: practice long crop rotations ; plow crop residue into soil immediately after harvest; plant resistant varieties; plant only pathogen-free seed; treat seeds with hot water prior to planting</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cercospora leaf blight</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cercospora carotae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Small, necrotic flecks on leaves which develop a chlorotic halo and expand into tan brown necrotic spots; lesions coalesce and cause leaves to wither, curl and die</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Disease can be introduced through infested seed and spread by wind or water splash; symptoms usually occur on younger foliage first</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Plant only pathogen-free seed; rotate crops; plow crop debris into soil ofter harvest; apply appropriate fungicide sprays</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cottony rot (Sclerotinia rot)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sclerotinia sclerotiorum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Small, water-soaked, soft lesions on crown and roots; white fluffy fungal growth all over affected tissues; soft and decaying tissue developing</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fungus can survive in soil for up to 10 years; disease emergence is favored by soils that are held close to saturation for periods in excess of 2 weeks</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cultural practices play an important role in the control of cottony rot as there are no resistand carrot varieties: in carrot fields, the use of drip irrigation 5-8 cm below the soil surface can provide good control; deep plowing of soil and trimming back carrot foliage to promote air circulation can also be useful; fungicides may be warranted in periods of extended cool, damp weather</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Downy mildew</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Peronospora umbellifarum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yellow spots on upper surface of leaves; white fluffy growth on underside of leaves; lesions become darker as the mature</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Disease affects young, tender leaves; disease emergence and spread is favored by prolonged leaf wetness</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plant pathogen-free seed; do not overcrowd plants; rotate crops with non-umbelliferous varieties</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Powdery mildew</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erisyphe heraclei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Powdery growth on leaves, petioles flowers stalks and bracts; leaves becoming chlorotic; severe infections can cause flowers to become distorted</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fungus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fungus can spread long distances in air; disease emergence is favored by high humidity and moderate temperatures; infection is most severe in shaded areas</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plant tolerant varieties; avoid excess fertilization; protective fungicide applications provide adequate protection; sulfur application can be used in infection occurs early in season</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bacterial leaf blight</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xanthomonas campestris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Small, angular, yellow spots on leaves which expand into irregularly shaped, brown, water-soaked lesions with a yellow halo; centers of lesions dry out, become brittle; leaves may become curled or distorted; flower stalks may develop elongated lesions that exude a bacterial ooze; infected umbels may be blighted</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bacterium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bacteria can be spread by splashing irrigation water or rain or on contaminated equipment</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plant pathogen-free seed; avoid using sprinkler irrigation; apply appropriate bactericides if available</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Soft rot</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erwinia carotovora
+Erwinia chrysanthemi
+Pseudomonas marginalis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Sunken dull orange lesions on taproot which causes tissue to collapse and become soft</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bacteria thrive in oxygen depleted plant tissue; disease emergence requires long periods of water saturated soil; bacteria enter plants through wounds</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Control relies on the avoidance of conditions conducive to bacterial infection: plant carrots in well-draining soils; allow plants to dry before irrigating again; avoid wounding plants during harvest to prevent pst harvest development of disease; disinfect all equipment regularly</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cavity spot</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pythium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sunken, elliptical, gray lesions across the root; outer layer of root ruptures and develops dark, elongated lesions; small vertical cracks may form on the cavities</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fungi can persist in soil for several years and disease outbreaks are associated with wet soils; flooded soil increases the number of cavities formed</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Some cultural practices can control the disease: avoid planting in fields/areas known to previously had carrot spot; do not over-fertilize plants; application(s) of appropriate fungicide can provide adequate control</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Damping-off</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pythium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Soft, rotting seeds which fail to germinate; rapid death of seedling prior to emergence from soil; collpase of seedlings after they have emerged from the soil caused by water-soaked reddish lesions girdling the stem at the soil line</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Damping-off diseases favor conditions which slow seed germination; fungi can be spread in water, contaminated soil or on equipment</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Avoid planting carrots in poorly draining, cool, wet soil; planting in raised beds will help with soil drainage; plant high quality seed that germinates quickly; treat seeds with fungicide prior to planting to eliminate fungal pathogens</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aphids (Willow-carrot aphid)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cavariella aegopodii</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Small soft bodied insects on underside of leaves and/or stems of plant; usually green or yellow in color; if aphid infestation is heavy it may cause leaves to yellow and/or distorted, necrotic spots on leaves and/or stunted shoots; aphids secrete a sticky, sugary substance called honeydew which encourages the growth of sooty mold on the plants</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinguishing features include the presence of cornicles (tubular structures) which project backwards from the body of the aphid; will generally not move very quickly when disturbed; willow-carrot aphid will also attack parnip, parsley and celery</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>If aphid population is limited to just a few leaves or shoots then the infestation can be pruned out to provide control; check transplants for aphids before planting; use tolerant varieties if available; reflective mulches such as silver colored plastic can deter aphids from feeding on plants; sturdy plants can be sprayed with a strong jet of water to knock aphids from leaves; insecticides are generally only required to treat aphids if the infestation is very high - plants generally tolerate low and medium level infestation; insecticidal soaps or oils such as neem or canola oil are usually the best method of control; always check the labels of the products for specific usage guidelines prior to use</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Carrot rust fly</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Psila rosae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Surface scarring of taproot caused by tunnels; tunnels are filled with a rust colored mush; adult insect is a small, dark colored fly; larvae are white maggots approximately 1 cm (0.3 in) long</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Carrot rust fly also attacks parsnip, celery and other Umbelliferous crops which will also need to be protected if carrot rust fly is a problem</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Use of row covers will help to protect plants from damage but they must be installed before adult fly lays eggs on plants; harvest carrots in blocks; do not leave any carrots in the ground over winter to reduce overwintering sites</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Carrot weevil</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Listronotus oregonensis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Irregular dark grooves in zig-zag pattern on roots; leaves of plant may yellow; adult insect is a dark colored beetle; larvae are white to pinkish white C-shaped grubs with a yellow-brown head</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adult weevils overwinter in crop debris remaining in the ground; larvae feed for approximately 2 weeks before pupating in the soil; insect undergoes several generations each year</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Remove all debris from Umbelliferous crops (e.g. parsley, dill, celerey etc.) to reduce sites where weevil can survive and persist; try to rotate Umbelliferous crops to different areas of the home garden each year to reduce survival of larvae in soil</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Flea beetle</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Systena blanda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Small holes or pits in leaves that give the foliage a characteristic “shothole” appearance; young plants and seedlings are particularly susceptible; plant growth may be reduced; if damage is severe the plant may be killed; the pest responsible for the damage is a small (1.5–3.0 mm) dark colored beetle which jumps when disturbed; the beetles are often shiny in appearance</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Younger plants are more susceptible to flea beetle damage than older ones; older plants can tolerate infestation; flea beetles may overwinter on nearby weed species, in plant debris or in the soil; insects may go through a second or third generation in one year</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>In areas where flea beetles are a problem, floating row covers may have to be used prior to the emergence of the beetles to provide a physical barrier to protect young plants; plant seeds early to allow establishment before the beetles become a problem - mature plants are less susceptible to damage; trap crops may provide a measure of control - cruciferous plants are best; application of a thick layer of mulch may help prevent beetles reaching surface; application on diamotecoeus earth or oils such as neem oil are effective control methods for organic growers; application of insecticides containing carbaryl, spinosad, bifenthrin and permethrin can provide adequate control of beetles for up to a week but will need reapplied</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Root-knot nematodes (Stubby root nematodes, Needle nematodes)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Meloidogyne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Forked, distorted or stunted taproots; reduced stand; reduced yield</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nematodes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Root-knot nematodes are most damaging to carrot; nematodes are microscopic and not visible to the naked eye</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Leaving land to fallow when not planting can be effective at reducing nematode numbers; solarizing soil for 4-6 week period to a depth of 6 inches can temporarily reduce nematode populations; new carrot varieties are currently being developed that are resistant to nematodes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/plant_diseases.xlsx
+++ b/plant_diseases.xlsx
@@ -14,15 +14,12 @@
     <sheet name="oil palm" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="onion" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="almond" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="banana" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="carrot" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="cassava" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="cucumber" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="ginger" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="orange" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="pawpaw" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="plantain" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="rice" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="carrot" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ginger" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="orange" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="pawpaw" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="plantain" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="rice" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1135,2211 +1132,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Disease Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Botanical Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Symptoms</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cause</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Anthracnose</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Colletotrichum gloeosporioides</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cankers on stems and leaf petioles; leaves drooping downwards; wilting leaves which die and fall from plant leading to plant defoliation; death of shoots; soft parts of plant become twisted and distorted</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Disease emerges at the beginning of wet season (Africa) and worsens; spores spread by wind</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Anthracnose usually does not cause large-scale economic damage to cassava and control is usually not necessary; avoid planting cuttings with cankers; if disease does occur crop debris should be removed and destroyed after harvest</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cassava Brown Leaf Spot</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cercosporidium henningsii</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Circular or irregular brown spots with darker margin between leaf veins on older leaves; centers of lesions may drop out givinf leaves a shothole appearance; if infection is severe, leaves may turn yellow, dry out and drop from the plant</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Disease emergence favored by high temperature and humidity</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Remove leaves and crop debris from around plants to prevent disease spreading; remove weeds from around crop</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>White leaf spot</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cercospora vicosae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Large, diffuse white spots on upper surface of leaves; spots with grey center on underside of leaves in humid weather</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Prevalent in wetter, warmer regions where cassava is grown e.g. Brazil and Colombia; common in West Africa</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Remove leaves and crop debris from around plants to prevent disease spreading; remove weeds from around crop</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Witches' broom</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Plants are stunted with an excessive proliferation of branches; shoots have small leaves and shortened internodes; no chlorosis is present; cuttings from the shoots are weak but show no visible symptoms; few shoots successfully grow from cuttings.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Phytoplasma</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Disease has been detected in Vietnam, Thailand, Cambodia, Laos, Indonesia, and the Philippines. The disease will cause yield loss from 30 to 80 percent.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Remove and destroy and plants suspected of being infected; remove all cassava debris from field after harvest; disinfect all tools and equipment between cuttings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bad Image</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Cassava Mites</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CBLS</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CBSD</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CGM</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CMD</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CRM</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Do Not Replant</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Diseased plant that should not be used to replant next season.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Healthy</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Late Blight</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mealybugs</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Nutrient Deficiency</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Potato Virus</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Replant</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Clean mother plant that can be used for replanting next year</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Wilting</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Bud necrosis</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Patches of dark brown or gray fungal growth on stems; necrotic areas covering buds on the stem</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Disease most commonly found on cassava grown in humid regions (e.g humid forest zones) and is less common in drier savanna areas; fungal spores are carried by wind to new plants and farms</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Only plant cassava cuttings taken from healthy plants which are free from necrotic lesions; space plants widely to allow good air circulation around plants and reduce disease incidence; remove weeds around plants; id disease is present, burn all necrotic stems and crop debris immediately after harvest to prevent spread</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cassava Brown Streak Disease</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Leaves: 
-- chlorotic or necrotic vein banding in mature leaves which may merge later to form large yellow patches
-Stems:
-- Brown elongated necrotic lesions on young stems
-Tubers:
-- necrosis of tubers
-- roots develop knots
-- internal tissues of roots and tubers stained brown and may rot due to secondary fungus infection
-1. yellowing along veins on lower/older leaves ~ 3 months after planting
-2. dark brown spots on upper green portion of stem ~ 6 months after planting
-3. Severe cases- leaf drying, shoot die-back
-4. In Tuber - Brown and hard rot when you cut into it. Causes malformation and root
-constriction ~ 10 months after planting</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Histroy and origin: Disease is prevalent in East Africa (Tanzania, Uganda and Kenya). It was first reported in 1930's in Tanzania and become endemic in later years. It is currently travelling from East Africa westwards and has been reported in the DRC. There is considerable concern that it will appear in the major West African growing regions, notably Nigeria. The virus is transmitted through whiteflies and stem cuttings. The origin of CBSD is suspected to have arisen from the viruses that are already present on the indigenous African flora. Virus structure and properties: The microscopic studies revealed that the virus is 650 nm long and earlier it was believe to be carlavirus. But further studies associate the virus to Ipomovirus. Cassva Brown Streak Disease is caused by two distinct species of single-stranded RNA (ssRNA) viruses, Cassava brown streak virus (CBSV) and Ugandan cassava brown streak virus (UCBSV), belonging to the genus Ipomovirus of the family Potyviridae. Economic loss: Cassava is an important stable crop in Africa and the continent produces an estimated 54% of the world's cassava production. As such the threat from CBSD seems inevitable due to its presence in many eastern African countries and its rate of transmission westwards to the major growing regions in Nigeria (which produced 30.8% of the world's supply). Though the economic loss from brown streak virus depends on region, cultivars and environment conditions, in general it is estimated up to 70% yield loss in susceptible variety is common with losses as high as 100% being observed in some regions. If the disease is unchecked it may cause 2 billion dollar in loss in Nigeria alone and lead to increase widespread poverty and malnutrition in West and Central Africa.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Disease diagnosis: The first and foremost important aspect is to identify the disease correctly. Cassava brown streak disease varies in symptoms which made it difficult to identify in the field. It makes further complicated if both cassava brown streak and cassava mosaic diseases occur together. There are few techniques like serological and molecular methods are used to identify the virus in laboratory but have their limitations. Planting materials: Use only healthy and disease free cuttings for planting. Resistant cultivars: Plant cassava varieties that are more tolerant of brown streak virus such as Garukunsubire and Seruruseke. Roguing and sanitation: Remove and destroy any plants which are symptomatic of the disease including alternative hosts. Early Harvesting of tubers: Harvest crop early to avoid severe losses due to necrosis of tubers. Follow proper plant quarantine practices to avoid spread of virus to new region. Control insect vector: Whiteflies can be controlled by encouraging beneficial insects in the field like spiders, ladybird beetles etc. Use yellow sticky traps to monitor infestation of whiteflies. Spraying insecticidal soaps under leaf surface to kill flies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cassava Mosaic Disease</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Discolored pale green, yellow or white mottled leaves which may be distorted with a reduced size; in highly susceptible cassava cultivars plant growth may be stunted, resulting in poor root yield and low quality stem cuttings. Note that infected plants can express a range of symptoms and the exact symptoms depend on the species of virus and the strain as well as the environmental conditions and and the sensitivity of the cassava host.
-1. Patches of discolouration (chlorosis) in the leaves that vary from yellow to green.
-2. The leaves display size variation and are often severely distorted.
-3. Leaf blades sometimes fold depending on severity shrivel.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Disease is spread by infected cuttings and by whiteflies. The leaves are yellow, mottled and distorted. If leaves are yellow all over but are a normal size or there brown leaves that that does not indicate disease. Wild cassava (kisamvu cha mpira in Kiswahili) also hosts the disease. The disease was first observed in the late 19th Century in what is now Tanzania. It was not until work in 1938 that the disease transmission was confirmed to occur via grafting as well as vectored by the White fly.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Varieties of cassava resistant to the virus are available in many countries, most traditional varieties of cassava grown in Africa are susceptible to the virus, seek advice from an agricultural extension on suitable varieties for your region (see below). Do not plant cuttings from plants with symptoms of disease; inspect plants regularly for symptoms of disease and remove and destroy any showing symptoms. Infected plants should be uprooted ('rouged'). Replace with disease resistant varieties such as 'Rwizihiza', 'Ndamirabana', 'Cyizere', 'Seruruseke', 'Mavoka', 'Garukunsubire' and 'Mbakungahaze'. There is no agrochemical agent or organic treatment for this disease. There are both control strategies for the whitefly vector.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cassava Bacterial Blight</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Xanthomonas manihotis</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Small, angular, brown, water-soaked lesions between leaf veins on lower surfaces of leaves; leaf blades turning brown as lesion expands; lesions may have a yello halo; lesions coalesce to form large necrotic patches; defoliation occurs with leaf petioles remaining in horizontal position as leaves drop; dieback of shoots; brown gum may be present on stems, leaves and petioles</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Most important bacterial disease of cassava; spread by water splash and infected tools; disease more severe in wet conditions; particularly destructive in South America and Africa; most important method of spread is probably through exchange of infected plant cuttings</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Rotate cassava crop with non-host; plow crop debris into soil after harvest or remove and burn it; prune infected parts from plant; propagate cuttings only from healthy plants; intercrop cassava with corn (maize) and melon</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Cassava Healthy</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Cassava Nutritional Deficiency</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>No Diagnosis</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Cassava root rot disease</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Macrophomina phaseolina</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Leaves on affected plants turning brown and wilting and plant has a scorched appearance; leaves may remain attached to the plant or drop to the ground; plant death will occur; examination of roots reveals root dieback and swelling of tubers; tubers may have light brown, dark gray, blue or pink discoloration; rotting roots may be soft and produce a foul odor; infection by Botryodiplodia fungi may cause the appearance of white fungal structures at the base of the stem, particularly during the wet season</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Fungi</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Root rot disease emergence is often favored by waterlogged, poorly-draining soils</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Plant cassava in well-draining soils; remove and destroy all crop debris by burning; sanitize all tools after use</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>African root and tuber scale</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Strictococcus vayssierrei</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Oval shaped scales on stems, roots and/or tubers; infections which occur at an early age kill plants and prevent the production of tubers; plant becomes shriveled and discolored at feeding sites</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Insect is indigenous to Africa and is particularly prevalent in forest areas of Ghana and Congo</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Improve soil by adding organic matter to make soil more fertile; remove and destroy infested stems; do not plant cuttings with scale</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Cassava scale</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Aonidomytilus albus</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Stem surfaces covered with white waxy substance; leaves wilting and dropping from plant; severe infestations may result in stunted plants and poor tuber yields; cutting from infected plants do not sprout; insect is a flattened oval scale with an elongated white cover</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Using pesticides to control scale insects reduces populations of beneficial insects such as natural enemies</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Plant material that is completely free of scale insects; remove and destroy infested stems from existing plantations; apply organic matter to soil to improve fertility</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Cassava whitefly</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Zonocerus variegatus
-Zonocerus elegans</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Hand pick any grasshoppers found on plants; locate any egg pods around cassava field and destroy to reduce grasshopper populations; biopesticides such as "Green Muscle" are available in South and West Africa which are very effective at reducing the grasshopper population; products containing neem have also given good control of variegated grasshoppers</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Grasshoppers (Variegated grasshopper, Elegant grasshopper)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Zonocerus variegatus
-Zonocerus elegans</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Defoliated plants; bark removed from stems; insects are large brightly colored grasshoppers</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Grasshoppers have a wide host range and mainly attack seedlings; cooperation between neighboring farms can help with grasshopper control as the insect tends to lay its eggs outwith the plantation with nymphs migrating to the crop to feed</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Hand pick any grasshoppers found on plants; locate any egg pods around cassava field and destroy to reduce grasshopper populations; biopesticides such as "Green Muscle" are available in South and West Africa which are very effective at reducing the grasshopper population; products containing neem have also given good control of variegated grasshoppers</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cassava Green Mite</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Mononychellus tanajoa
-Mononychellus progresivus</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Yellow stipping of leaves; chlorotic spots on leaves; chlorosis of entire leaves; if infestation is very high then leaves may be stunted and deformed; terminal leaves may die and drop from plant; pest responsible is a tiny green mite
-1. Chlorosis (yellowing of leaves).
-2. Leaves become shrivelled, mottled in serious cases
-3. Check for the presence of mites on the underside of leaves
-4. Yellow speckles evenly distributed on young leaves usually near the top ⅓ of the plant</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Arachnid</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Green spider mites are very common pests in most African growing regions and become problematic during the dry season; can cause significant tuber losses</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Plant tolerant cassava varieties where possible; plant at the beginning of the rainy season to encourage vigorous growth which allows plant to tolerate attack; intercropping with crops such as cowpea may reduce damage; introductions of the predatory mite Typhlodromalus aripo have been very successful at controlling the green spider mite in many regions of Africa</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cassava Red Mite Damage</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Tetranychus</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Spraying plants with a strong jet of water can help reduce buildup of spider mite populations; if mites become problematic apply insecticidal soap to plants; certain chemical insecticides may actually increase mite populations by killing off natural enemies and promoting mite reproduction</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Two-spotted spider mite</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Tetranychus</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Leaves stippled with yellow; leaves may appear bronzed; webbing covering leaves; mites may be visible as tiny moving dots on the webs or underside of leaves, best viewed using a hand lens; usually not spotted until there are visible symptoms on the plant; leaves turn yellow and may drop from plant</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Arachnid</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Spider mites thrive in dusty conditions; water-stressed plants are more susceptible to attack</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Spraying plants with a strong jet of water can help reduce buildup of spider mite populations; if mites become problematic apply insecticidal soap to plants; certain chemical insecticides may actually increase mite populations by killing off natural enemies and promoting mite reproduction</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Root knot nematode</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Meloidogyne</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Galls on roots which can be up to 3.3 cm (1 in) in diameter but are usually smaller; reduction in plant vigor; yellowing plants which wilt in hot weather</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Nematode</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Galls can appear as quickly as a month prior to planting; nematodes prefer sandy soils and damage in areas of field or garden with this type of soil is most likely</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Plant resistant varieties if nematodes are known to be present in the soil ;check roots of plants mid-season or sooner if symptoms indicate nematodes; solarizing soil can reduce nematode populations in the soil and levels of inoculum of many other pathogens</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Disease Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Botanical Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Symptoms</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cause</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Alternaria leaf blight</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Alternaria cucumerina</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Small, yellow-brown spots with a yellow or green halo which first appear on the oldest leaves; as the disease progresses, lesions expand and become large necrotic patches, often with concentric patternation; lesions coalesce, leaves begin to curl and eventually die.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Disease is prevalent in growing areas where temperatures are high and rainfall is frequent.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Cucurbits should be rotated with another crop every 2 years to reduce levels of inoculum; crop debris should be removed from the field as quickly as possible after harvest or plowed deeply into the soil; applications of appropriate protective fungicides can help to slow the development of the disease; water plants from the base rather than from above to reduce periods of leaf wetness which are conducive to the development and spread of disease.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Anthracnose</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Colletotrichum orbiculare</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Brown roughly circular lesions with yellow edges on leaves on leaves, petioles, stems and/or fruit; lesions on resistant varieties appear tan with green edges; lesions dry out and drop out of leaves.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Disease favors warm temperatures.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plant resistant varieties; use only certified seed; apply appropriate protective fungicides; rotate crops every year.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Belly rot  (Fruit rot, Damping-off)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rhizoctonia solani</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yellow/brown discoloration on fruit; water soaked spots on side of fruit in contact with soil; brown mold growing on rotting areas; collapse of seedlings.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Disease favors warm, humid conditions.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Till soil deeply prior to planting; use plastic mulch to create a barrier between fruit and soil; plant in sites with good drainage to avoid wet soils; apply appropriate protective fungicides when plants begin to vine.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cercospora leaf spot</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cercospora citrullina</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Initial symptoms of disease occur on older leaves as small spots with light to tan brown centers; as the disease progresses, the lesions enlarge to cover large areas of the leaf surface; lesions may have a dark border and be surrounded by a chlorotic area; the centers of the lesions may become brittle and crack.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Fungus survives on plant debris; spread by wind and water splash; occurs mainly in tropical and subtropical growing regions.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Any diseased plants should be removed and destroyed to prevent further spread; crop debris should be removed after harvest or plowed deeply into the soil to reduce inoculum.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Downy mildew</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pseudoperonospora cubensis</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Fluffy purplish mildew on underside of leaves; yellow spots on the upper side of leaves.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Oomycete</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Disease favors cool, humid conditions.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Do not overcrowd plants; avoid overhead irrigation, water plants from base; apply appropriate fungicide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Fusarium wilt (Cucumber wilt, Foot-rot)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fusarium oxysporum</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Rotting of seedling stems at soil line; brown lesions on one side of stem; discoloration of tissue inside vine.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Disease favors warm, moist soil.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Plant fungicide treated seed; rotate crops on 4 year rotation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Gummy stem blight (vine decline, GSB)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Didymella bryoniae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Gray/green lesions between veins of leaves; tan or gray lesions on stems.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Disease may be seed-borne.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Use disease free seed; treat seeds prior to planting; rotate crops every 2 years.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Powdery mildew</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Erysiphe cichoracearum
-Sphaerotheca fuliginea</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>The appearance of white powdery spots on the upper surfaces of leaves, stems and fruits. As the disease progress, white fungal growth covers whole leaves and stem. The infected leaves become yellow, distorted and may drop prematurely.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>The spores are carried by wind from one plant to another. The disease is favored by moderate temperature and shady conditions.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Grow available resistant varieties. If the disease is severe, spray suitable fungicide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Septoria leaf spot</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Septoria cucurbitacearum</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Initial symptoms of disease are small dark water-soaked spots on the leaves which turn beige to white in dry conditions; lesions develop thin brown borders and the centers may become brittle and crack; small white spots may erupt on the surface of infected butternut and acorn squash and pumpkin fruit.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pathogen can survive on crop debris for periods in excess of 1 year.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Scout plants during cool wet conditions for any sign of spots; early application of an appropriate protective fungicide can help limit the development of the disease if spots are found' cucurbits should be rotated with other crops every 2 years to prevent the build-up of inoculum; crop debris should be removed and destroyed after harvest.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Target leaf spot</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Corynespora cassiicola
-Corynespora melonis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Angular yellow spots appear on older leaves; as the disease progresses, the spots enlarge and become circular with light brown centers and dark margins; as lesions mature, they turn gray and drop out leaving holes in the leaves; if fruits become infected early in their growth then the blossom end may darken and become shriveled.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Fungus can survive on plant debris for periods in excess of 2 years; disease emergence favored by periods of high humidity and temperature.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Plant resistant varieties; apply appropriate protective fungicide; sanitize equipment regularly.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Verticillium wilt</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Verticillium dahliae</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Symptoms generally appear after fruit set; chlorotic leaves which develop necrotic areas; leaves collapsing; symptoms only on one side of vine; discoloration of vascular tissue in roots.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Fungus can survive in soil for many years; disease emergence favored by cool or mild weather in Spring.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Do not plant in areas where other susceptible crops have been grown previously; delay planting until temperatures are warmer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Angular leaf spot</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pseudomonas syringae</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Small water-soaked lesions on leaves which expand between leaf veins and become angular in shape; in humid conditions, lesions exude a milky substance which dries to form a white crust on or beside lesions; as the disease progresses, lesions turn tan and may have yellow/green edges; the centers of the lesions dry and may drop out leaving a hole in the leaf.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Bacteria, Bacterium</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Spread through infected seed, splashing rain, insects and movement of people between plants; bacterium overwinters in crop debris and can survive for 2.5 years.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Use disease-free seed; do not grow plants in field where cucurbits have been grown in the previous 2 years; protective copper spray may help reduce incidence of disease in warm, humid climates; plant resistant varieties.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bacterial leaf spot</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Initial symptoms of the disease are the appearance of small water-soaked lesions on the undersides of the leaves which lead to the development of yellow patches on the upper leaf surface; the lesions become round and angular and may be mistaken for angular leaf spot; the centers of the lesions become thin and translucent and lesions become surrounded with a wide yellow halo.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Bacteria is spread via infected seeds.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Use disease-free seed; do not grow plants in field where cucurbits have been grown in the previous 2 years; avoid overhead irrigation, water plants from the base instead to reduce the spread of bacteria.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Bacterial wilt</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Erwinia tracheiphila</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Individual runners or whole plant begins to wilt and rapidly die; infected runners appear dark green in color but rapidly become necrotic as the disease progresses.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Can result in crop losses of of 75%; spread by striped or spotted cucumber beetles; disease can be confirmed by cutting the stem and slowly pulling the two ends apart - infected plants will ooze strings of bacterial exudate.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Control cucumber beetle populations on plants; hand pick adult beetles and destroy; soil and foliar application of appropriate insecticides may help to control populations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Aster yellows</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Phytophthora capsici</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Foliage turning yellow; secondary shoots begin growing prolifically; stems take on a rigid, upright growth habit; leaves are often small in size and distorted, may appear thickened; flowers are often disfigured and possess conspicuous leafy bracts; fruits are small and pale in color.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Phytoplasma</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Disease is transmitted by leafhoppers and can cause huge losses in cucurbit crops.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Remove any infected plants from the field to reduce spread; control weeds in and around the field that may act as a reservoir for the phytoplasma; protect plants from leaf hopper vectors with row covers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Cucumber green mottle mosaic</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Phytophthora capsici</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Early symptoms on young plants include vein-clearing and the development of crumpled leaves; older plants develop bleached and/or chlorotic leaves. As the infection progresses, leaves develop mottling and become blistered and distorted. Leaf symptoms are very difficult to distinguish from other mosaic viruses of Cucurbits. Severity of symptoms varies depending on the strain of the virus.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>All Cucurbit species are susceptible to the virus, some cucumber varieties have been developed which have some resistance to the disease and are available in Canada and Europe.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>As the virus is spread primarily by infected seed, only disease-free seed from a reputable supplier should be planted. Seedlings and plants infected with the virus should be removed and destroyed to prevent spread. All seedlings/plants within a 3-5 ft radius of the infected plant should also be destroyed. The virus can be spread mechanically via tools and on hands, good sanitation should be practiced at all times to prevent virus transmission - disinfect all tools and equipment between uses by dipping in a solution of bleach or using a commercially available disinfectant such as Virkon.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cucumber mosaic</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Phytophthora capsici</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Plants are severely stunted; foliage is covered in distinctive yellow mosaic; leaves of plant curl downwards and leaf size is smaller than normal; flowers on infected plants may be deformed with green petals; fruits become distorted and are small in size; fruit is often discolored.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Transmitted by aphids; virus has an extensive host range; virus can be mechanically transmitted via tools etc.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Control of the virus is largely dependant on the control of the aphid vectors; reflective mulches can deter aphid feeding; aphid outbreaks can be treated with mineral oils or insecticidal soap applications; some resistant varieties are available.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Squash mosaic</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Phytophthora capsici</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Symptoms vary with variety being grown but plants can show symptoms which include green veinbanding, mottled leaves, blisters, ring spots or potruding veins at leaf margins; some squash varieties may develop leaf enations; infected plants are often stunted and fruits may be malformed with mottled skin.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Virus can be transmitted through infected seed and spread by striped cucumber beetles.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Use only certified disease-free seed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Watermelon mosaic</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Phytophthora capsici</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Symptoms vary widely depending on species, cultivar, virus strain and environmental conditions; symptoms on leaves may include green mosaic patternation, green vein-banding, chlorotic rings and disfigured leaves.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Virus is found in almost all Cucurbit growing regions in the world; virus is spread by over 20 aphid species.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Treatments that control populations of aphid vectors can also reduce the incidence of the virus; spraying plants with mineral oils or insecticidal soaps can help to reduce aphid numbers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Phytophthora blight</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Phytophthora capsici</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>The disease can be found in all stages and all parts of the crop. On seedlings, the pathogen causes damping off symptoms where hypocotyl exhibit watery rot or rotting of the stem near the soil line, resulting in plant death. The Mature plants exhibit crown rot symptoms. The post-emergence infection leads to wilting and death of the plant.
-During the growing season, vine exhibit dark olive water soaked lesion which later become brown resulting in girdling of the stem that leads to quick collapse and death of foliage (vine blight). On leaves shows necrotic spots with chlorotic to olive-green borders. As the disease progress, this spot merges and cover entire leaf.
-On fruits, disease can occur from fruit set to harvest and storage. The appearance of water soaked lesions on fruit, particularly near the surface which is touching the soil. Later these lesions expand, resulting in rioting. The infected fruit is covered with white mold numerous sporangia.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Oomycete</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Rain and overhead irrigation helps in spreading pathogen from plant to plant.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Use disease free seed materials. Follow crop rotation. Spray suitable fungicide.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Pythium fruit rot (Cottony leak)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>The symptoms first appear in the area of fruit which is in contact with soil as small, water-soaked spots. These spots spread very fast to a large portion of fruit resulting in soft and necrotic area. If the condition is favorable, heavy growth of white fungal mass which resembles the tufts of cotton can be seen on infected area.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>The disease is favored by wet condition. The pathogen spreads via water and soil particles.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Avoid excessive soil moisture. Mulching with suitable materials help in preventing the disease.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Scab</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cladosponum cucumerinum</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>The leaves exhibit small water-soaked or pale green spots which later turn white to gray and become angular. A yellowish halo may surround the lesion. The damaged leaves may appear ragged due to tearing and cracking of dead tissue. Symptoms can also be seen on petiole and stem. 
-On fruits, the appearance of small, gray, slightly sunken, oozing, gummy spots which later enlarge, and finally become distinct sunken cavities. Under favorable condition, the pathogen produces dark, olive green, velvety layer of spores on the cavities.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>The pathogen overwinters on the seed, in crop debris and in soil.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Remove and destroy the infected leaves and plant debris. Keep the field free from weeds. Use disease free seeds. Grow available resistant varieties. Follow crop rotation. Spray with suitable fungicides.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Aphids (Peach aphid, Melon aphid)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Myzus persicae
-Aphis gossypii</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Small soft bodied insects on underside of leaves and/or stems of plant; usually green or yellow in color, but may be pink, brown, red or black depending on species and host plant; if aphid infestation is heavy it may cause leaves to yellow and/or distorted, necrotic spots on leaves and/or stunted shoots; aphids secrete a sticky, sugary substance called honeydew which encourages the growth of sooty mold on the plants.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Distinguishing features include the presence of cornicles (tubular structures) which project backwards from the body of the aphid; will generally not move very quickly when disturbed.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>If aphid population is limited to just a few leaves or shoots then the infestation can be pruned out to provide control; check transplants for aphids before planting; use tolerant varieties if available; reflective mulches such as silver colored plastic can deter aphids from feeding on plants; sturdy plants can be sprayed with a strong jet of water to knock aphids from leaves; insecticides are generally only required to treat aphids if the infestation is very high - plants generally tolerate low and medium level infestation; insecticidal soaps or oils such as neem or canola oil are usually the best method of control; always check the labels of the products for specific usage guidelines prior to use.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cabbage looper</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Trichoplusia ni</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Large or small holes in leaves; damage often extensive; caterpillars are pale green with a white lines running down either side of their body; caterpillars are easily distinguished by the way they arch their body when moving; eggs are laid singly, usually on the lower leaf surface close to the leaf margin, and are white or pale green in color.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Insects overwinter as pupae in crop debris in soil; adult insect id a dark colored moth; caterpillars have a wide host range.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Looper populations are usually held in check by natural enemies; if they do become problematic larvae can be hand-picked from the plants; an organically acceptable control method is the application of Bacillus thuringiensis which effectively kills younger larvae; chemical sprays may damage populations of natural enemies and should and should be selected carefully.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cucumber beetles (Western striped cucumber beetle, Western spotted cucumber beetle, Banded cucumber beetle)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Acalymma vittata
-Diabrotica undecimpunctata
-Diabrotica balteata</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Stunted seedling; damaged leaves, stems and/or petioles; reduced plant stand; plants may exhibit symptoms of bacterial wilt; scars on fruit caused by beetle feeding damage; adult beetles are brightly colored with either a green-yellow background and black spots or alternating black and yellow stripes.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Beetles overwinter in soil and leaf litter and emerge from soil when temperatures begin to reach and exceed 12.7°C (55°F).</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Monitor new planting regularly for signs of beetle; floating row covers can be used to protect the plants from damage but will need to be removed at bloom to allow bees to pollinate plants; applications of kaolin clay can be effective for management of small beetle populations; application of appropriate insecticides may be necessary.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Cutworms</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Agrotis</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Stems of young transplants or seedlings may be severed at soil line; if infection occurs later, irregular holes are eaten into the surface of fruits; larvae causing the damage are usually active at night and hide during the day in the soil at the base of the plants or in plant debris of toppled plant; larvae are 2.5–5.0 cm (1–2 in) in length; larvae may exhibit a variety of patterns and coloration but will usually curl up into a C-shape when disturbed.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cutworms have a wide host range and attack vegetables including asparagus, bean, cabbage and other crucifers, carrot, celery, corn, lettuce, pea, pepper, potato and tomato.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Remove all plant residue from soil after harvest or at least two weeks before planting, this is especially important if the previous crop was another host such as alfalfa, beans or a leguminous cover crop; plastic or foil collars fitted around plant stems to cover the bottom 3 inches above the soil line and extending a couple of inches into the soil can prevent larvae severing plants; hand-pick larvae after dark; spread diatomaceous earth around the base of the plants (this creates a sharp barrier that will cut the insects if they try and crawl over it); apply appropriate insecticides to infested areas of garden or field if not growing organically.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Flea beetles</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Epitrix</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Small holes or pits in leaves that give the foliage a characteristic “shothole” appearance; young plants and seedlings are particularly susceptible; plant growth may be reduced; if damage is severe the plant may be killed; the pest responsible for the damage is a small (1.5–3.0 mm) dark colored beetle which jumps when disturbed; the beetles are often shiny in appearance.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Insects</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Younger plants are more susceptible to flea beetle damage than older ones; older plants can tolerate infestation; flea beetles may overwinter on nearby weed species, in plant debris or in the soil; insects may go through a second or third generation in one year.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>In areas where flea beetles are a problem, floating row covers may have to be used prior to the emergence of the beetles to provide a physical barrier to protect young plants; plant seeds early to allow establishment before the beetles become a problem - mature plants are less susceptible to damage; trap crops may provide a measure of control - cruciferous plants are best; application of a thick layer of mulch may help prevent beetles reaching surface; application on diamotecoeus earth or oils such as neem oil are effective control methods for organic growers; application of insecticides containing carbaryl, spinosad, bifenthrin and permethrin can provide adequate control of beetles for up to a week but will need reapplied.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Stinkbugs (Various)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Frankliniella occidentalis
-Thrips tabaci</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Dark colored pinpricks on fruit surrounded by a lighter area that turns yellow or remains light green; stink bugs often carry pathogens in their mouthparts which can cause secondary infections and decay of fruit; adult insect is shield-shaped and brown or green in color; may have pink, red or yellow markings; eggs are drum shaped and laid in clusters on the leaves; larvae resemble the adults but are smaller.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Adult insects overwinter under leaves, on legumes, blackberries or on certain weeds such as mustard or Russian thistle.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Remove weeds around crop which may act as overwintering sites for stink bugs and practice good weed management throughout the year; organically accepted control methods include the use of insecticidal soaps, kaolin clay and preservation of natural enemies; chemical treatments are not recommended for tomatoes that are to be processed for paste or canning unless secondary infections with other pathogens are a concern.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Thrips (Western flower thrips, Onion thrips, etc.)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Frankliniella occidentalis
-Thrips tabaci</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>If population is high leaves may be distorted; leaves are covered in coarse stippling and may appear silvery; leaves speckled with black feces; insect is small (1.5 mm) and slender and best viewed using a hand lens; adult thrips are pale yellow to light brown and the nymphs are smaller and lighter in color.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Transmit viruses such as Tomato spotted wilt virus; once acquired, the insect retains the ability to transmit the virus for the remainder of its life.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Avoid planting next to onions, garlic or cereals where very large numbers of thrips can build up; use reflective mulches early in growing season to deter thrips; apply appropriate insecticide if thrips become problematic.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Disease Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Botanical Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Symptoms</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cause</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bacterial wilt</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ralstonia solanacearum</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Green leaves infected with the pathogen roll and curl ("green wilt"); leaves turn yellow then necrotic; plants become stunted and die; rhizomes are discolored and water-soaked and may be rotting inside.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Bacteria</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Disease is spread via movement of infested soil; bacteria survive in the soil on plant debris.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Plant ginger in well draining soils where ginger had not previously been grown; plant only pathogen free seed; plant ginger on hills to aid soil drainage and promote air flow around the rhizome; rotate ginger with non-hosts of bacterial wilt.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Dry rot</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fusarium and Pratylenchus complex</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Initially the lower leaves exhibit yellow tips followed by complete yellowing. As the disease progress, the upper leaves become yellow. Later the leaves become dry and whole plant appears stunted.
-Infected rhizome shows brownish ring particularly at cortical region.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Fungus and Nematode</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Favors waterlogged fields. Always occurs in patches. When comparing to soft rot the dry rot infected stem won't come off with a gentle pull.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Treating seed with Bordeaux mixture prior to planting and solarizing the soil can help to reduce the incidence of the disease.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Rhizome rot/Soft rot/Pythium rot</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pythium aphanidermatum
- P. vexans
-P. myriotylum</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Stunted plant growth; yellow leaves and stems; brown discoloration of water conducting tissue within stem; root system rotted, mushy and turning black; rotted rhizome gives off a foul odor.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Fungi</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Disease favors warm, moist soils; spread primarily through use of infected seed pieces which may not show any outward signs of disease.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plant ginger in well-draining soils or on hills created by tilling; do not plant any seed pieces which show symptoms of disease; seed pieces can be treated with hot water (50°C/122°F for 10 min) or appropriate fungicides prior to planting; destroy all crop debris after harvest; keep fields weed free; do not grow ginger for more than one year in same area.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chinese rose beetle</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Adoretus sinicus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>"Shot-hole" appearance of leaves; entire leaf consumed with the exception of the leaf veins; adult insect is a reddish-brown beetle which feeds on plants at night.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Chinese rose beetles are nocturnal.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chinese rose beetles are attracted to dim light and repelled by bright light, shining bright light on plants may help deter them from feeding; covering young plants with e.g. floating row covers can help to protect plants until they are old enough to withstand attacks by the beetle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Root-knot nematode and Burrowing nematode</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Meloidogyne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Root knot nematode: Water soaked lesions on roots; Galls on roots which can be up to 3.3 cm (1 in) in diameter but are usually smaller; reduction in plant vigor; yellowing plants which wilt in hot weather.
-Burrowing nematode: The appearance of small, water-soaked shallow lesions on rhizome which later turn brown. This lesion merges together and leads to rotting. Infected plants show yellow leaves with less number of shoots and stunted growth.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Nematode</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Galls or lesions can appear as quickly as a month prior to planting; nematodes prefer sandy soils and damage in the areas of the field or garden with this type of soil is most likely.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plant resistant varieties if nematodes are known to be present in the soil ;check roots of plants mid-season or sooner if symptoms indicate nematodes; solarizing soil can reduce nematode populations in the soil and levels of inoculum of many other pathogens. Treating rhizome with hot water (51°C for 10 minutes) before planting reduces burrowing nematode problem.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3816,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4252,7 +2044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4591,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7770,7 +5562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7813,17 +5605,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Anthracnose</t>
+          <t>Alternaria leaf blight</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colletotrichum musae</t>
+          <t>Alternaria dauci</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brown spots on fruit peel; large brown to black areas; black lesions on green fruit.</t>
+          <t>Green-brown water-soaked lesions on leaves which enlarge and turn dark brown or black; lesions may coalesce causing leaves to yellow and die; lesions may be present on petioles</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7833,49 +5625,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Wet conditions promote growth and spread of disease; spread by rainfall through plant or banana bunch.</t>
+          <t>Disease emergence favored by wet foliage and warm weather; rain and fog enhance the development of the disease; fungus survives in soil on crop debris but is killed when the debris decomposes</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Commercially produced fruit should be washed and dipped in fungicide prior to shipping; protect fruit from injury; remove flower parts which can harbour fungus.</t>
+          <t>Disease can be difficult to control in wet, warm conditions; apply appropriate fungicides when first symptoms appear or as a protective measure in humid areas; treat seeds with fungicide or hot water prior to planting; apply gibberellic acid to carrot foliage to promote upright growth and promote air circulation through canopy</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Banana speckle</t>
+          <t>Black rot</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mycosphaerella fijiensis</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>Alternaria radicina</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Damping-off of seedlings; root and crown necrosis; blighted foliage; lower portion of petioles black and necrotic; black ring around petiole attachment black, sunken lesions on taproot</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Disease is spread through infected seed and can survive in soil for up to 8 years</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Export plantations may require regular fungicide applications; increase plant spacing to improve air circulation and reduce humidity; remove leaves with mature spots</t>
+          <t>Black rot is difficult to control and can survive in the soil for long periods of time: practice long crop rotations ; plow crop residue into soil immediately after harvest; plant resistant varieties; plant only pathogen-free seed; treat seeds with hot water prior to planting</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Black sigatoka (Black leaf streak)</t>
+          <t>Cercospora leaf blight</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mycosphaerella fijiensis</t>
+          <t>Cercospora carotae</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Red/brown flecks or spots on underside or topside of leaves; spots with dark or yellow border and grey centre; death of leaf surface; bunch not developing</t>
+          <t>Small, necrotic flecks on leaves which develop a chlorotic halo and expand into tan brown necrotic spots; lesions coalesce and cause leaves to wither, curl and die</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7885,30 +5689,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Currently the most important disease of banana; promoted by high moisture and spores spread by wind</t>
+          <t>Disease can be introduced through infested seed and spread by wind or water splash; symptoms usually occur on younger foliage first</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Export plantations may require regular fungicide applications; increase plant spacing to improve air circulation and reduce humidity; remove leaves with mature spots</t>
+          <t>Plant only pathogen-free seed; rotate crops; plow crop debris into soil ofter harvest; apply appropriate fungicide sprays</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cigar end rot</t>
+          <t>Cottony rot (Sclerotinia rot)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Verticillium fructigena
-Trachysphaera theobromae</t>
+          <t>Sclerotinia sclerotiorum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tips of fingers initially begin to darken and wrinkle; tips of fingers develop a dark rot; if Verticillium fungi are present then the rot is typically dry and the tips become mummified, if Trachysphaera is present, the rotted are become covered with white spores which gives the fingers the ashen appearance characteristic of cigar end rot.</t>
+          <t>Small, water-soaked, soft lesions on crown and roots; white fluffy fungal growth all over affected tissues; soft and decaying tissue developing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7918,29 +5721,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Disease is of economic importance in Central and West Africa; it also occurs in India, Iran, South Africa, South America, the Canaries and the West Indies.</t>
+          <t>Fungus can survive in soil for up to 10 years; disease emergence is favored by soils that are held close to saturation for periods in excess of 2 weeks</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Infected flowers should be removed from the plant; bunches should be bagged using perforated polyethylene; chemical control may be necessary in the case of severe infestations.</t>
+          <t>Cultural practices play an important role in the control of cottony rot as there are no resistand carrot varieties: in carrot fields, the use of drip irrigation 5-8 cm below the soil surface can provide good control; deep plowing of soil and trimming back carrot foliage to promote air circulation can also be useful; fungicides may be warranted in periods of extended cool, damp weather</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cordana leaf spot</t>
+          <t>Downy mildew</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cordana musae</t>
+          <t>Peronospora umbellifarum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Initially the lower leaves shows oval shaped yellow or pale brown spots near the leaf margins. As the disease progress, the central dead brown area of spots is covered by concentric zonation which is surrounded by a yellow halo. The individual spots may join together to form large necrotic area.</t>
+          <t>Yellow spots on upper surface of leaves; white fluffy growth on underside of leaves; lesions become darker as the mature</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7950,30 +5753,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The disease is favored by hot and humid condition. The pathogen mainly spreads by water splash and wind.</t>
+          <t>Disease affects young, tender leaves; disease emergence and spread is favored by prolonged leaf wetness</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Remove all the infected leaves and burn them. If the disease is severe spray copper based fungicides.</t>
+          <t>Plant pathogen-free seed; do not overcrowd plants; rotate crops with non-umbelliferous varieties</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Panama disease  (Fusarium wilt)</t>
+          <t>Powdery mildew</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fusarium oxysporum f. sp. cubense</t>
+          <t>Erisyphe heraclei</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The fungus infect roots and grow inside xylem vessels which in turn blocks flow of nutrients and water to plant. We can see reddish brown discoloration of vascular tissue by cut opening rhizomes and pseudostem. 
-The above ground symptoms are yellowing of older leaves; splitting of leaf sheaths; leaves wilting and buckling; death of entire canopy.</t>
+          <t>Powdery growth on leaves, petioles flowers stalks and bracts; leaves becoming chlorotic; severe infections can cause flowers to become distorted</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7983,897 +5785,302 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>It is very lethal disease which mainly spreads through soil, running water and infected rhizome. It is one of the first disease of bananas to have spread globally.</t>
+          <t>Fungus can spread long distances in air; disease emergence is favored by high humidity and moderate temperatures; infection is most severe in shaded areas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Use disease free planting materials; currently no effective treatment once plants are infected.</t>
+          <t>Plant tolerant varieties; avoid excess fertilization; protective fungicide applications provide adequate protection; sulfur application can be used in infection occurs early in season</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rhizome rot</t>
+          <t>Bacterial leaf blight</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erwinia carotovora</t>
+          <t>Xanthomonas campestris</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pseudostem breaks from rhizome; rhizome will not germinate; internal tissue yellow/brown and watery</t>
+          <t>Small, angular, yellow spots on leaves which expand into irregularly shaped, brown, water-soaked lesions with a yellow halo; centers of lesions dry out, become brittle; leaves may become curled or distorted; flower stalks may develop elongated lesions that exude a bacterial ooze; infected umbels may be blighted</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bacteria</t>
+          <t>Bacterium</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bacteria live in soil and enter plant through wounds; disease encouraged by wet, humid conditions</t>
+          <t>Bacteria can be spread by splashing irrigation water or rain or on contaminated equipment</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Select only high quality, disease-free rhizomes fro propagation; disinfect all tools used for propagation regularly; allow seed pieces to dry before planting</t>
+          <t>Plant pathogen-free seed; avoid using sprinkler irrigation; apply appropriate bactericides if available</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yellow sigatoka</t>
+          <t>Soft rot</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mycosphaerella musae</t>
+          <t>Erwinia carotovora
+Erwinia chrysanthemi
+Pseudomonas marginalis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Pale green flecks on leaves which enlarge to chlorotic streaks; streaks enlarge and turn brown with chlorotic halo; mature lesions are gray with a dark brown border; lesions coalesce and kill large areas of leaves</t>
+          <t>Sunken dull orange lesions on taproot which causes tissue to collapse and become soft</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fungus</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Spores spread by wind, rain and irrigation water;</t>
+          <t>Bacteria thrive in oxygen depleted plant tissue; disease emergence requires long periods of water saturated soil; bacteria enter plants through wounds</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Export plantations may require regular fungicide applications; increase plant spacing to improve air circulation and reduce humidity; remove leaves with mature spots</t>
+          <t>Control relies on the avoidance of conditions conducive to bacterial infection: plant carrots in well-draining soils; allow plants to dry before irrigating again; avoid wounding plants during harvest to prevent pst harvest development of disease; disinfect all equipment regularly</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bad Image</t>
+          <t>Cavity spot</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t>Pythium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sunken, elliptical, gray lesions across the root; outer layer of root ruptures and develops dark, elongated lesions; small vertical cracks may form on the cavities</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Fungi can persist in soil for several years and disease outbreaks are associated with wet soils; flooded soil increases the number of cavities formed</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+          <t>Some cultural practices can control the disease: avoid planting in fields/areas known to previously had carrot spot; do not over-fertilize plants; application(s) of appropriate fungicide can provide adequate control</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Banana BBTV Leaf</t>
+          <t>Damping-off</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+          <t>Pythium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Soft, rotting seeds which fail to germinate; rapid death of seedling prior to emergence from soil; collpase of seedlings after they have emerged from the soil caused by water-soaked reddish lesions girdling the stem at the soil line</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fungi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Damping-off diseases favor conditions which slow seed germination; fungi can be spread in water, contaminated soil or on equipment</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+          <t>Avoid planting carrots in poorly draining, cool, wet soil; planting in raised beds will help with soil drainage; plant high quality seed that germinates quickly; treat seeds with fungicide prior to planting to eliminate fungal pathogens</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>banana_blackSigatoka_leaf</t>
+          <t>Aphids (Willow-carrot aphid)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+          <t>Cavariella aegopodii</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Small soft bodied insects on underside of leaves and/or stems of plant; usually green or yellow in color; if aphid infestation is heavy it may cause leaves to yellow and/or distorted, necrotic spots on leaves and/or stunted shoots; aphids secrete a sticky, sugary substance called honeydew which encourages the growth of sooty mold on the plants</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinguishing features include the presence of cornicles (tubular structures) which project backwards from the body of the aphid; will generally not move very quickly when disturbed; willow-carrot aphid will also attack parnip, parsley and celery</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+          <t>If aphid population is limited to just a few leaves or shoots then the infestation can be pruned out to provide control; check transplants for aphids before planting; use tolerant varieties if available; reflective mulches such as silver colored plastic can deter aphids from feeding on plants; sturdy plants can be sprayed with a strong jet of water to knock aphids from leaves; insecticides are generally only required to treat aphids if the infestation is very high - plants generally tolerate low and medium level infestation; insecticidal soaps or oils such as neem or canola oil are usually the best method of control; always check the labels of the products for specific usage guidelines prior to use</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Banana Black Sigatoka Leaf</t>
+          <t>Carrot rust fly</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>Psila rosae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Surface scarring of taproot caused by tunnels; tunnels are filled with a rust colored mush; adult insect is a small, dark colored fly; larvae are white maggots approximately 1 cm (0.3 in) long</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Carrot rust fly also attacks parsnip, celery and other Umbelliferous crops which will also need to be protected if carrot rust fly is a problem</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+          <t>Use of row covers will help to protect plants from damage but they must be installed before adult fly lays eggs on plants; harvest carrots in blocks; do not leave any carrots in the ground over winter to reduce overwintering sites</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>banana_BXW_bunch</t>
+          <t>Carrot weevil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>Listronotus oregonensis</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Irregular dark grooves in zig-zag pattern on roots; leaves of plant may yellow; adult insect is a dark colored beetle; larvae are white to pinkish white C-shaped grubs with a yellow-brown head</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adult weevils overwinter in crop debris remaining in the ground; larvae feed for approximately 2 weeks before pupating in the soil; insect undergoes several generations each year</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+          <t>Remove all debris from Umbelliferous crops (e.g. parsley, dill, celerey etc.) to reduce sites where weevil can survive and persist; try to rotate Umbelliferous crops to different areas of the home garden each year to reduce survival of larvae in soil</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Banana BXW Fruit Cut</t>
+          <t>Flea beetle</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>Systena blanda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Small holes or pits in leaves that give the foliage a characteristic “shothole” appearance; young plants and seedlings are particularly susceptible; plant growth may be reduced; if damage is severe the plant may be killed; the pest responsible for the damage is a small (1.5–3.0 mm) dark colored beetle which jumps when disturbed; the beetles are often shiny in appearance</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Insect</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Younger plants are more susceptible to flea beetle damage than older ones; older plants can tolerate infestation; flea beetles may overwinter on nearby weed species, in plant debris or in the soil; insects may go through a second or third generation in one year</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
+          <t>In areas where flea beetles are a problem, floating row covers may have to be used prior to the emergence of the beetles to provide a physical barrier to protect young plants; plant seeds early to allow establishment before the beetles become a problem - mature plants are less susceptible to damage; trap crops may provide a measure of control - cruciferous plants are best; application of a thick layer of mulch may help prevent beetles reaching surface; application on diamotecoeus earth or oils such as neem oil are effective control methods for organic growers; application of insecticides containing carbaryl, spinosad, bifenthrin and permethrin can provide adequate control of beetles for up to a week but will need reapplied</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>banana_BXW_fruitCutCrosswise</t>
+          <t>Root-knot nematodes (Stubby root nematodes, Needle nematodes)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>Meloidogyne</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Forked, distorted or stunted taproots; reduced stand; reduced yield</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nematodes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Root-knot nematodes are most damaging to carrot; nematodes are microscopic and not visible to the naked eye</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>banana_BXW_fruitUncut</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Banana BXW Leaf</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>banana_BXW_stemCutCrosswise</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Banana Fruit Cut BXW</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Banana Leaf Black Sigatoka</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Banana Leaf BXW</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Banana Sigatoka</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Banana Sigatoka Leaf</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Fungal</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>banana_unknown_leaf</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>banana_yellowSigatoka_leaf</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Banana Yellow Sigatoka Leaf</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Bunchy Top Disease</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>BXW</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Dried Old</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fusarium (Panama Disease)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fusarium (TR4)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Healthy</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Nutrient Deficiency</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Weevil Damage</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Banana bacterial wilt (BBW) / Banana xanthomonas wilt (BXW)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris pv. musacearum (Xcm)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>The infected plant shows yellow leaves which later turn brown and die. If infection occurs at later stage of crop, male buds exhibit dry rot and blackening . Premature uneven ripening of fruits in the bunch. The infected fruit show rusty brown discoloration in pulp.
-Infected parts ooze yellow bacteria after cut.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Bacteria</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>In Uganda locally it is called as 'kiwotoka'. The disease is mainly transmitted by insects, farm equipments, animals and infected rhizomes. BBW was first recorded in Ethiopia (1968) mainly on banana and enset. Later the disease spread to Uganda (2001) and eventually to other eastern African countries.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Use disease free planting material. Roughing of infected plant and destroy them. Removing of excess male buds prevent disease spread. Disinfect the farm equipments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Moko disease</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ralstonia solanacearum</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Older leaves chlorotic, wilted and collapsing; spreads to entire canopy; collapse of pseudostem</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Can be spread root to root or by insects or human activities such as machete pruning.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Banana plantations should be regularly monitored for presence of disease; if Moko is present, male buds should be removed and all tools thoroughly disinfected; infected plants may need to be destroyed along with any neighbouring plants</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Banana mosaic</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Pentalonia nigronervosa</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Chlorotic mottling or stripes on foliage; distorted fruit which may have chlorotic streaks or mottling; distorted leaves; leaf necrosis</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Transmitted by aphids; may be transmitted through infected seed</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Remove susceptible host plants from around plantation; plant virus-free material</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Bunchy top</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Pentalonia nigronervosa</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Dark green streaks in leaves; chlorotic and upturned leaf margins; leaves brittle and erect; plant has a ‘bunchy top; no bunches produced</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Virus</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Aphid transmitted; when infected symptoms appear after two more leaves are produced</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Plant less susceptible varieties; destroy infected plants to prevent spread of disease</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Banana aphid</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Pentalonia nigronervosa</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Deformed plants with curled, shriveled leaves; if infestation is severe, galls may form on leaves; colonies of aphids usually present in crown of plant at base of pseudostem or between the outer leaf sheaths; aphid is soft-bodied and red-brown to almost black in color.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Colonies are often tended by ants; populations can build rapidly during warm weather.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Chemical control does not provide protection against transmission of Banana bunchy top and direct feeding damage is not usually severe enough to warrant spraying; insecticidal soaps can help control aphid populations; plants infected with bunch top should be removed and destroyed to prevent spread.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Banana skipper</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Erionota thrax</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Usually larvae feed on leaves. Typically the feeding involves incising and rolling up of leaves.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>The insect also attacks coconut and other palm species. The pest is common in Southeast Asia and Pacific islands.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Encourage and release natural enemies to check the population of skippers. Hand pick the larvae and kill them.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Banana weevil</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cosmopolites sordidus</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Reduced plant growth; reduced fruit production; tunnels may be visible in corm as rounded holes up to 8 mm in diameter; plants wilting and toppling over; destruction of root system; plant death; adult insect is a hard-shelled beetle which is almost black in color; adult is commonly found between leaf sheaths; larvae are   creamy-white, legless grubs with a red-brown head</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Insects are nocturnal, feeding and mating only at night</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Plant only healthy plant material, do not plant if any tunnels are visible; hot water treatment of clean trimmed suckers can be used to kill off many eggs and grubs; applications of neem powder can reduce weevil numbers; appropriate insecticides applied at time of planting can help control weevil numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Coconut scale</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Aspidiotus destructor</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Small, flat, whitish scales, usually on undersides of leaves but may also attach to petioles, peduncles and fruit; plant tissue discolored and yellowing.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Coconut scale attacks a large number of hosts including coconut and other palm species, avocado, cassava, papaya, guava and sugar cane; most common in tropical regions.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Biological control is the best way to manage scale, with lady beetles providing the most effective protection.</t>
+          <t>Leaving land to fallow when not planting can be effective at reducing nematode numbers; solarizing soil for 4-6 week period to a depth of 6 inches can temporarily reduce nematode populations; new carrot varieties are currently being developed that are resistant to nematodes</t>
         </is>
       </c>
     </row>
@@ -8888,7 +6095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8931,482 +6138,164 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alternaria leaf blight</t>
+          <t>Bacterial wilt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternaria dauci</t>
+          <t>Ralstonia solanacearum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Green-brown water-soaked lesions on leaves which enlarge and turn dark brown or black; lesions may coalesce causing leaves to yellow and die; lesions may be present on petioles</t>
+          <t>Green leaves infected with the pathogen roll and curl ("green wilt"); leaves turn yellow then necrotic; plants become stunted and die; rhizomes are discolored and water-soaked and may be rotting inside.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Fungus</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Disease emergence favored by wet foliage and warm weather; rain and fog enhance the development of the disease; fungus survives in soil on crop debris but is killed when the debris decomposes</t>
+          <t>Disease is spread via movement of infested soil; bacteria survive in the soil on plant debris.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Disease can be difficult to control in wet, warm conditions; apply appropriate fungicides when first symptoms appear or as a protective measure in humid areas; treat seeds with fungicide or hot water prior to planting; apply gibberellic acid to carrot foliage to promote upright growth and promote air circulation through canopy</t>
+          <t>Plant ginger in well draining soils where ginger had not previously been grown; plant only pathogen free seed; plant ginger on hills to aid soil drainage and promote air flow around the rhizome; rotate ginger with non-hosts of bacterial wilt.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Black rot</t>
+          <t>Dry rot</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alternaria radicina</t>
+          <t>Fusarium and Pratylenchus complex</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Damping-off of seedlings; root and crown necrosis; blighted foliage; lower portion of petioles black and necrotic; black ring around petiole attachment black, sunken lesions on taproot</t>
+          <t>Initially the lower leaves exhibit yellow tips followed by complete yellowing. As the disease progress, the upper leaves become yellow. Later the leaves become dry and whole plant appears stunted.
+Infected rhizome shows brownish ring particularly at cortical region.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fungi</t>
+          <t>Fungus and Nematode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Disease is spread through infected seed and can survive in soil for up to 8 years</t>
+          <t>Favors waterlogged fields. Always occurs in patches. When comparing to soft rot the dry rot infected stem won't come off with a gentle pull.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Black rot is difficult to control and can survive in the soil for long periods of time: practice long crop rotations ; plow crop residue into soil immediately after harvest; plant resistant varieties; plant only pathogen-free seed; treat seeds with hot water prior to planting</t>
+          <t>Treating seed with Bordeaux mixture prior to planting and solarizing the soil can help to reduce the incidence of the disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cercospora leaf blight</t>
+          <t>Rhizome rot/Soft rot/Pythium rot</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cercospora carotae</t>
+          <t>Pythium aphanidermatum
+ P. vexans
+P. myriotylum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Small, necrotic flecks on leaves which develop a chlorotic halo and expand into tan brown necrotic spots; lesions coalesce and cause leaves to wither, curl and die</t>
+          <t>Stunted plant growth; yellow leaves and stems; brown discoloration of water conducting tissue within stem; root system rotted, mushy and turning black; rotted rhizome gives off a foul odor.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fungus</t>
+          <t>Fungi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Disease can be introduced through infested seed and spread by wind or water splash; symptoms usually occur on younger foliage first</t>
+          <t>Disease favors warm, moist soils; spread primarily through use of infected seed pieces which may not show any outward signs of disease.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Plant only pathogen-free seed; rotate crops; plow crop debris into soil ofter harvest; apply appropriate fungicide sprays</t>
+          <t>Plant ginger in well-draining soils or on hills created by tilling; do not plant any seed pieces which show symptoms of disease; seed pieces can be treated with hot water (50°C/122°F for 10 min) or appropriate fungicides prior to planting; destroy all crop debris after harvest; keep fields weed free; do not grow ginger for more than one year in same area.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cottony rot (Sclerotinia rot)</t>
+          <t>Chinese rose beetle</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sclerotinia sclerotiorum</t>
+          <t>Adoretus sinicus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Small, water-soaked, soft lesions on crown and roots; white fluffy fungal growth all over affected tissues; soft and decaying tissue developing</t>
+          <t>"Shot-hole" appearance of leaves; entire leaf consumed with the exception of the leaf veins; adult insect is a reddish-brown beetle which feeds on plants at night.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fungus</t>
+          <t>Insect</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fungus can survive in soil for up to 10 years; disease emergence is favored by soils that are held close to saturation for periods in excess of 2 weeks</t>
+          <t>Chinese rose beetles are nocturnal.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cultural practices play an important role in the control of cottony rot as there are no resistand carrot varieties: in carrot fields, the use of drip irrigation 5-8 cm below the soil surface can provide good control; deep plowing of soil and trimming back carrot foliage to promote air circulation can also be useful; fungicides may be warranted in periods of extended cool, damp weather</t>
+          <t>Chinese rose beetles are attracted to dim light and repelled by bright light, shining bright light on plants may help deter them from feeding; covering young plants with e.g. floating row covers can help to protect plants until they are old enough to withstand attacks by the beetle.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Downy mildew</t>
+          <t>Root-knot nematode and Burrowing nematode</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Peronospora umbellifarum</t>
+          <t>Meloidogyne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yellow spots on upper surface of leaves; white fluffy growth on underside of leaves; lesions become darker as the mature</t>
+          <t>Root knot nematode: Water soaked lesions on roots; Galls on roots which can be up to 3.3 cm (1 in) in diameter but are usually smaller; reduction in plant vigor; yellowing plants which wilt in hot weather.
+Burrowing nematode: The appearance of small, water-soaked shallow lesions on rhizome which later turn brown. This lesion merges together and leads to rotting. Infected plants show yellow leaves with less number of shoots and stunted growth.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fungus</t>
+          <t>Nematode</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Disease affects young, tender leaves; disease emergence and spread is favored by prolonged leaf wetness</t>
+          <t>Galls or lesions can appear as quickly as a month prior to planting; nematodes prefer sandy soils and damage in the areas of the field or garden with this type of soil is most likely.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plant pathogen-free seed; do not overcrowd plants; rotate crops with non-umbelliferous varieties</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Powdery mildew</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Erisyphe heraclei</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Powdery growth on leaves, petioles flowers stalks and bracts; leaves becoming chlorotic; severe infections can cause flowers to become distorted</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Fungus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Fungus can spread long distances in air; disease emergence is favored by high humidity and moderate temperatures; infection is most severe in shaded areas</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Plant tolerant varieties; avoid excess fertilization; protective fungicide applications provide adequate protection; sulfur application can be used in infection occurs early in season</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bacterial leaf blight</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Xanthomonas campestris</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Small, angular, yellow spots on leaves which expand into irregularly shaped, brown, water-soaked lesions with a yellow halo; centers of lesions dry out, become brittle; leaves may become curled or distorted; flower stalks may develop elongated lesions that exude a bacterial ooze; infected umbels may be blighted</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Bacterium</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Bacteria can be spread by splashing irrigation water or rain or on contaminated equipment</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Plant pathogen-free seed; avoid using sprinkler irrigation; apply appropriate bactericides if available</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Soft rot</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Erwinia carotovora
-Erwinia chrysanthemi
-Pseudomonas marginalis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sunken dull orange lesions on taproot which causes tissue to collapse and become soft</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Bacteria</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Bacteria thrive in oxygen depleted plant tissue; disease emergence requires long periods of water saturated soil; bacteria enter plants through wounds</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Control relies on the avoidance of conditions conducive to bacterial infection: plant carrots in well-draining soils; allow plants to dry before irrigating again; avoid wounding plants during harvest to prevent pst harvest development of disease; disinfect all equipment regularly</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cavity spot</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sunken, elliptical, gray lesions across the root; outer layer of root ruptures and develops dark, elongated lesions; small vertical cracks may form on the cavities</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fungi</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Fungi can persist in soil for several years and disease outbreaks are associated with wet soils; flooded soil increases the number of cavities formed</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Some cultural practices can control the disease: avoid planting in fields/areas known to previously had carrot spot; do not over-fertilize plants; application(s) of appropriate fungicide can provide adequate control</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Damping-off</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pythium</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Soft, rotting seeds which fail to germinate; rapid death of seedling prior to emergence from soil; collpase of seedlings after they have emerged from the soil caused by water-soaked reddish lesions girdling the stem at the soil line</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Fungi</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Damping-off diseases favor conditions which slow seed germination; fungi can be spread in water, contaminated soil or on equipment</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Avoid planting carrots in poorly draining, cool, wet soil; planting in raised beds will help with soil drainage; plant high quality seed that germinates quickly; treat seeds with fungicide prior to planting to eliminate fungal pathogens</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Aphids (Willow-carrot aphid)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Cavariella aegopodii</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Small soft bodied insects on underside of leaves and/or stems of plant; usually green or yellow in color; if aphid infestation is heavy it may cause leaves to yellow and/or distorted, necrotic spots on leaves and/or stunted shoots; aphids secrete a sticky, sugary substance called honeydew which encourages the growth of sooty mold on the plants</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Distinguishing features include the presence of cornicles (tubular structures) which project backwards from the body of the aphid; will generally not move very quickly when disturbed; willow-carrot aphid will also attack parnip, parsley and celery</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>If aphid population is limited to just a few leaves or shoots then the infestation can be pruned out to provide control; check transplants for aphids before planting; use tolerant varieties if available; reflective mulches such as silver colored plastic can deter aphids from feeding on plants; sturdy plants can be sprayed with a strong jet of water to knock aphids from leaves; insecticides are generally only required to treat aphids if the infestation is very high - plants generally tolerate low and medium level infestation; insecticidal soaps or oils such as neem or canola oil are usually the best method of control; always check the labels of the products for specific usage guidelines prior to use</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Carrot rust fly</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Psila rosae</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Surface scarring of taproot caused by tunnels; tunnels are filled with a rust colored mush; adult insect is a small, dark colored fly; larvae are white maggots approximately 1 cm (0.3 in) long</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Carrot rust fly also attacks parsnip, celery and other Umbelliferous crops which will also need to be protected if carrot rust fly is a problem</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Use of row covers will help to protect plants from damage but they must be installed before adult fly lays eggs on plants; harvest carrots in blocks; do not leave any carrots in the ground over winter to reduce overwintering sites</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Carrot weevil</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Listronotus oregonensis</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Irregular dark grooves in zig-zag pattern on roots; leaves of plant may yellow; adult insect is a dark colored beetle; larvae are white to pinkish white C-shaped grubs with a yellow-brown head</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Adult weevils overwinter in crop debris remaining in the ground; larvae feed for approximately 2 weeks before pupating in the soil; insect undergoes several generations each year</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Remove all debris from Umbelliferous crops (e.g. parsley, dill, celerey etc.) to reduce sites where weevil can survive and persist; try to rotate Umbelliferous crops to different areas of the home garden each year to reduce survival of larvae in soil</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Flea beetle</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Systena blanda</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Small holes or pits in leaves that give the foliage a characteristic “shothole” appearance; young plants and seedlings are particularly susceptible; plant growth may be reduced; if damage is severe the plant may be killed; the pest responsible for the damage is a small (1.5–3.0 mm) dark colored beetle which jumps when disturbed; the beetles are often shiny in appearance</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Insect</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Younger plants are more susceptible to flea beetle damage than older ones; older plants can tolerate infestation; flea beetles may overwinter on nearby weed species, in plant debris or in the soil; insects may go through a second or third generation in one year</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>In areas where flea beetles are a problem, floating row covers may have to be used prior to the emergence of the beetles to provide a physical barrier to protect young plants; plant seeds early to allow establishment before the beetles become a problem - mature plants are less susceptible to damage; trap crops may provide a measure of control - cruciferous plants are best; application of a thick layer of mulch may help prevent beetles reaching surface; application on diamotecoeus earth or oils such as neem oil are effective control methods for organic growers; application of insecticides containing carbaryl, spinosad, bifenthrin and permethrin can provide adequate control of beetles for up to a week but will need reapplied</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Root-knot nematodes (Stubby root nematodes, Needle nematodes)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Meloidogyne</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Forked, distorted or stunted taproots; reduced stand; reduced yield</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Nematodes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Root-knot nematodes are most damaging to carrot; nematodes are microscopic and not visible to the naked eye</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Leaving land to fallow when not planting can be effective at reducing nematode numbers; solarizing soil for 4-6 week period to a depth of 6 inches can temporarily reduce nematode populations; new carrot varieties are currently being developed that are resistant to nematodes</t>
+          <t>Plant resistant varieties if nematodes are known to be present in the soil ;check roots of plants mid-season or sooner if symptoms indicate nematodes; solarizing soil can reduce nematode populations in the soil and levels of inoculum of many other pathogens. Treating rhizome with hot water (51°C for 10 minutes) before planting reduces burrowing nematode problem.</t>
         </is>
       </c>
     </row>
